--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,11 +2167,11 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,11 +2215,11 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5636,12 +5636,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8594,16 +8594,16 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8642,16 +8642,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14119,11 +14119,11 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14167,11 +14167,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15227,7 +15227,7 @@
         </is>
       </c>
       <c r="F310" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15275,7 +15275,7 @@
         </is>
       </c>
       <c r="F311" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15751,11 +15751,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15799,11 +15799,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15812,12 +15812,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17671,11 +17671,11 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17719,11 +17719,11 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17732,12 +17732,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17767,11 +17767,11 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17780,12 +17780,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17815,11 +17815,11 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17828,12 +17828,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -18664,7 +18664,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -18674,16 +18674,16 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F382" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G382" t="inlineStr">
         <is>
@@ -18697,7 +18697,7 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
@@ -18727,11 +18727,11 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F383" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G383" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
@@ -18760,7 +18760,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -18775,11 +18775,11 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F384" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
@@ -18808,7 +18808,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -18818,16 +18818,16 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F385" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G385" t="inlineStr">
         <is>
@@ -18841,7 +18841,7 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
@@ -21112,7 +21112,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21127,11 +21127,11 @@
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F433" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -21140,12 +21140,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21160,7 +21160,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21175,11 +21175,11 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21193,7 +21193,7 @@
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21208,7 +21208,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21223,11 +21223,11 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21236,12 +21236,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -23032,7 +23032,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Planta de Proceso Tamai (e-seia)</t>
+          <t>Cultivo de Mitílidos, Punta Chaica, Pesca Cisne S.A. (N° Sol. 200101033) (e-seia)</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23047,11 +23047,11 @@
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>Pesquera y Conservera Tamai Ltda.</t>
+          <t>Pesca Cisne S.A.</t>
         </is>
       </c>
       <c r="F473" t="n">
-        <v>200</v>
+        <v>58</v>
       </c>
       <c r="G473" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125693&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=132892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -23080,7 +23080,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos, Punta Chaica, Pesca Cisne S.A. (N° Sol. 200101033) (e-seia)</t>
+          <t>Planta de Proceso Tamai (e-seia)</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23095,11 +23095,11 @@
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>Pesca Cisne S.A.</t>
+          <t>Pesquera y Conservera Tamai Ltda.</t>
         </is>
       </c>
       <c r="F474" t="n">
-        <v>58</v>
+        <v>200</v>
       </c>
       <c r="G474" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=132892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125693&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
@@ -24088,7 +24088,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
+          <t>Proyecto Consorcio General (e-seia)</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -24103,11 +24103,11 @@
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>ACUA - RÍO S.A.</t>
+          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
         </is>
       </c>
       <c r="F495" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="G495" t="inlineStr">
         <is>
@@ -24116,12 +24116,12 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
@@ -24136,7 +24136,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Proyecto Consorcio General (e-seia)</t>
+          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -24151,11 +24151,11 @@
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
+          <t>ACUA - RÍO S.A.</t>
         </is>
       </c>
       <c r="F496" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="G496" t="inlineStr">
         <is>
@@ -24164,12 +24164,12 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,11 +2167,11 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,11 +2215,11 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5636,12 +5636,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8594,16 +8594,16 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8642,16 +8642,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14119,11 +14119,11 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14167,11 +14167,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15227,7 +15227,7 @@
         </is>
       </c>
       <c r="F310" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15275,7 +15275,7 @@
         </is>
       </c>
       <c r="F311" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15751,11 +15751,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15799,11 +15799,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15812,12 +15812,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17671,11 +17671,11 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17719,11 +17719,11 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17732,12 +17732,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17767,11 +17767,11 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17780,12 +17780,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17815,11 +17815,11 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17828,12 +17828,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -18664,7 +18664,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -18674,16 +18674,16 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F382" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G382" t="inlineStr">
         <is>
@@ -18697,7 +18697,7 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
@@ -18727,11 +18727,11 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F383" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G383" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
@@ -18760,7 +18760,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -18775,11 +18775,11 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F384" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
@@ -18808,7 +18808,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -18818,16 +18818,16 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F385" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G385" t="inlineStr">
         <is>
@@ -18841,7 +18841,7 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
@@ -21112,7 +21112,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21127,11 +21127,11 @@
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F433" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -21140,12 +21140,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21160,7 +21160,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21175,11 +21175,11 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21193,7 +21193,7 @@
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21208,7 +21208,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21223,11 +21223,11 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21236,12 +21236,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -23032,7 +23032,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos, Punta Chaica, Pesca Cisne S.A. (N° Sol. 200101033) (e-seia)</t>
+          <t>Planta de Proceso Tamai (e-seia)</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23047,11 +23047,11 @@
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>Pesca Cisne S.A.</t>
+          <t>Pesquera y Conservera Tamai Ltda.</t>
         </is>
       </c>
       <c r="F473" t="n">
-        <v>58</v>
+        <v>200</v>
       </c>
       <c r="G473" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=132892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125693&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -23080,7 +23080,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Planta de Proceso Tamai (e-seia)</t>
+          <t>Cultivo de Mitílidos, Punta Chaica, Pesca Cisne S.A. (N° Sol. 200101033) (e-seia)</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23095,11 +23095,11 @@
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>Pesquera y Conservera Tamai Ltda.</t>
+          <t>Pesca Cisne S.A.</t>
         </is>
       </c>
       <c r="F474" t="n">
-        <v>200</v>
+        <v>58</v>
       </c>
       <c r="G474" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125693&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=132892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
@@ -24088,7 +24088,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Proyecto Consorcio General (e-seia)</t>
+          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -24103,11 +24103,11 @@
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
+          <t>ACUA - RÍO S.A.</t>
         </is>
       </c>
       <c r="F495" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="G495" t="inlineStr">
         <is>
@@ -24116,12 +24116,12 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
@@ -24136,7 +24136,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
+          <t>Proyecto Consorcio General (e-seia)</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -24151,11 +24151,11 @@
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>ACUA - RÍO S.A.</t>
+          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
         </is>
       </c>
       <c r="F496" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="G496" t="inlineStr">
         <is>
@@ -24164,12 +24164,12 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,11 +2167,11 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,11 +2215,11 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5636,12 +5636,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8594,16 +8594,16 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8642,16 +8642,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14119,11 +14119,11 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14167,11 +14167,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15227,7 +15227,7 @@
         </is>
       </c>
       <c r="F310" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15275,7 +15275,7 @@
         </is>
       </c>
       <c r="F311" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15751,11 +15751,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15799,11 +15799,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15812,12 +15812,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17671,11 +17671,11 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17719,11 +17719,11 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17732,12 +17732,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17767,11 +17767,11 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17780,12 +17780,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17815,11 +17815,11 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17828,12 +17828,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -18664,7 +18664,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -18674,16 +18674,16 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F382" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G382" t="inlineStr">
         <is>
@@ -18697,7 +18697,7 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
@@ -18727,11 +18727,11 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F383" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G383" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
@@ -18760,7 +18760,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -18775,11 +18775,11 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F384" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
@@ -18808,7 +18808,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -18818,16 +18818,16 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F385" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G385" t="inlineStr">
         <is>
@@ -18841,7 +18841,7 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
@@ -19591,7 +19591,7 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Comercial y Servicios Sur Austral Limitada</t>
+          <t>Caleta Bay Procesos SpA</t>
         </is>
       </c>
       <c r="F401" t="n">
@@ -21112,7 +21112,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21127,11 +21127,11 @@
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F433" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -21140,12 +21140,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21160,7 +21160,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21175,11 +21175,11 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21193,7 +21193,7 @@
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21208,7 +21208,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21223,11 +21223,11 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21236,12 +21236,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -23032,7 +23032,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Planta de Proceso Tamai (e-seia)</t>
+          <t>Cultivo de Mitílidos, Punta Chaica, Pesca Cisne S.A. (N° Sol. 200101033) (e-seia)</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23047,11 +23047,11 @@
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>Pesquera y Conservera Tamai Ltda.</t>
+          <t>Pesca Cisne S.A.</t>
         </is>
       </c>
       <c r="F473" t="n">
-        <v>200</v>
+        <v>58</v>
       </c>
       <c r="G473" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125693&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=132892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -23080,7 +23080,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos, Punta Chaica, Pesca Cisne S.A. (N° Sol. 200101033) (e-seia)</t>
+          <t>Planta de Proceso Tamai (e-seia)</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23095,11 +23095,11 @@
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>Pesca Cisne S.A.</t>
+          <t>Pesquera y Conservera Tamai Ltda.</t>
         </is>
       </c>
       <c r="F474" t="n">
-        <v>58</v>
+        <v>200</v>
       </c>
       <c r="G474" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=132892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125693&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
@@ -24088,7 +24088,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
+          <t>Proyecto Consorcio General (e-seia)</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -24103,11 +24103,11 @@
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>ACUA - RÍO S.A.</t>
+          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
         </is>
       </c>
       <c r="F495" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="G495" t="inlineStr">
         <is>
@@ -24116,12 +24116,12 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
@@ -24136,7 +24136,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Proyecto Consorcio General (e-seia)</t>
+          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -24151,11 +24151,11 @@
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
+          <t>ACUA - RÍO S.A.</t>
         </is>
       </c>
       <c r="F496" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="G496" t="inlineStr">
         <is>
@@ -24164,12 +24164,12 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,11 +2167,11 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,11 +2215,11 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5636,12 +5636,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -8503,7 +8503,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>Salmones Reloncaví SpA</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8594,16 +8594,16 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8642,16 +8642,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14119,11 +14119,11 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14167,11 +14167,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15227,7 +15227,7 @@
         </is>
       </c>
       <c r="F310" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15275,7 +15275,7 @@
         </is>
       </c>
       <c r="F311" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15751,11 +15751,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15799,11 +15799,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15812,12 +15812,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17671,11 +17671,11 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17719,11 +17719,11 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17732,12 +17732,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17767,11 +17767,11 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17780,12 +17780,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17815,11 +17815,11 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17828,12 +17828,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -18664,7 +18664,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -18674,16 +18674,16 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F382" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G382" t="inlineStr">
         <is>
@@ -18697,7 +18697,7 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
@@ -18727,11 +18727,11 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F383" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G383" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
@@ -18760,7 +18760,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -18775,11 +18775,11 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F384" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
@@ -18808,7 +18808,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -18818,16 +18818,16 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F385" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G385" t="inlineStr">
         <is>
@@ -18841,7 +18841,7 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
@@ -21112,7 +21112,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21127,11 +21127,11 @@
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F433" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -21140,12 +21140,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21160,7 +21160,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21175,11 +21175,11 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21193,7 +21193,7 @@
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21208,7 +21208,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21223,11 +21223,11 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21236,12 +21236,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -23032,7 +23032,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Planta de Proceso Tamai (e-seia)</t>
+          <t>Cultivo de Mitílidos, Punta Chaica, Pesca Cisne S.A. (N° Sol. 200101033) (e-seia)</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23047,11 +23047,11 @@
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>Pesquera y Conservera Tamai Ltda.</t>
+          <t>Pesca Cisne S.A.</t>
         </is>
       </c>
       <c r="F473" t="n">
-        <v>200</v>
+        <v>58</v>
       </c>
       <c r="G473" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125693&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=132892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -23080,7 +23080,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos, Punta Chaica, Pesca Cisne S.A. (N° Sol. 200101033) (e-seia)</t>
+          <t>Planta de Proceso Tamai (e-seia)</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23095,11 +23095,11 @@
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>Pesca Cisne S.A.</t>
+          <t>Pesquera y Conservera Tamai Ltda.</t>
         </is>
       </c>
       <c r="F474" t="n">
-        <v>58</v>
+        <v>200</v>
       </c>
       <c r="G474" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=132892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125693&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
@@ -24088,7 +24088,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
+          <t>Proyecto Consorcio General (e-seia)</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -24103,11 +24103,11 @@
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>ACUA - RÍO S.A.</t>
+          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
         </is>
       </c>
       <c r="F495" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="G495" t="inlineStr">
         <is>
@@ -24116,12 +24116,12 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
@@ -24136,7 +24136,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Proyecto Consorcio General (e-seia)</t>
+          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -24151,11 +24151,11 @@
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
+          <t>ACUA - RÍO S.A.</t>
         </is>
       </c>
       <c r="F496" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="G496" t="inlineStr">
         <is>
@@ -24164,12 +24164,12 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -20372,7 +20372,7 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -836,7 +836,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -4711,7 +4711,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Salmones Maullín Ltda.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -6487,7 +6487,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Salmones Maullín Ltda.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F128" t="n">
@@ -6583,7 +6583,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Salmones Maullín Ltda.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -8023,7 +8023,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Salmones Maullín Ltda.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F160" t="n">
@@ -8071,7 +8071,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Salmones Maullín Ltda.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F161" t="n">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>11/04/2022</t>
+          <t>14/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,11 +2215,11 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,11 +2263,11 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8642,16 +8642,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14167,11 +14167,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14215,11 +14215,11 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15275,7 +15275,7 @@
         </is>
       </c>
       <c r="F311" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15323,7 +15323,7 @@
         </is>
       </c>
       <c r="F312" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15799,11 +15799,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15812,12 +15812,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15847,11 +15847,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17719,11 +17719,11 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17732,12 +17732,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17767,11 +17767,11 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17780,12 +17780,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17815,11 +17815,11 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17828,12 +17828,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17863,11 +17863,11 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17876,12 +17876,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -18712,7 +18712,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -18722,16 +18722,16 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F383" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G383" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
@@ -18775,11 +18775,11 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F384" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
@@ -18808,7 +18808,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -18823,11 +18823,11 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F385" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G385" t="inlineStr">
         <is>
@@ -18841,7 +18841,7 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
@@ -18856,7 +18856,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -18866,16 +18866,16 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F386" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G386" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
@@ -21160,7 +21160,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21175,11 +21175,11 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21188,12 +21188,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21208,7 +21208,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21223,11 +21223,11 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21241,7 +21241,7 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21256,7 +21256,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21271,11 +21271,11 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F436" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -21284,12 +21284,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -23272,7 +23272,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
+          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23287,11 +23287,11 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>FEDERICO CARLOS DORNER PARIS</t>
+          <t>Carmen Isolina Cortés Jara</t>
         </is>
       </c>
       <c r="F478" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -23320,7 +23320,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
+          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -23339,7 +23339,7 @@
         </is>
       </c>
       <c r="F479" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -23368,7 +23368,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
+          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -23383,11 +23383,11 @@
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>Carmen Isolina Cortés Jara</t>
+          <t>FEDERICO CARLOS DORNER PARIS</t>
         </is>
       </c>
       <c r="F480" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
@@ -24136,7 +24136,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Proyecto Consorcio General (e-seia)</t>
+          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -24151,11 +24151,11 @@
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
+          <t>ACUA - RÍO S.A.</t>
         </is>
       </c>
       <c r="F496" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="G496" t="inlineStr">
         <is>
@@ -24164,12 +24164,12 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">
@@ -24184,7 +24184,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
+          <t>Proyecto Consorcio General (e-seia)</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -24199,11 +24199,11 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>ACUA - RÍO S.A.</t>
+          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
         </is>
       </c>
       <c r="F497" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="G497" t="inlineStr">
         <is>
@@ -24212,12 +24212,12 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,11 +2215,11 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,11 +2263,11 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8642,16 +8642,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14167,11 +14167,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14215,11 +14215,11 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15275,7 +15275,7 @@
         </is>
       </c>
       <c r="F311" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15323,7 +15323,7 @@
         </is>
       </c>
       <c r="F312" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15799,11 +15799,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15812,12 +15812,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15847,11 +15847,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17719,11 +17719,11 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17732,12 +17732,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17767,11 +17767,11 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17780,12 +17780,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17815,11 +17815,11 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17828,12 +17828,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17863,11 +17863,11 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17876,12 +17876,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -18712,7 +18712,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -18722,16 +18722,16 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F383" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G383" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
@@ -18775,11 +18775,11 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F384" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
@@ -18808,7 +18808,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -18823,11 +18823,11 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F385" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G385" t="inlineStr">
         <is>
@@ -18841,7 +18841,7 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
@@ -18856,7 +18856,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -18866,16 +18866,16 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F386" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G386" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
@@ -21160,7 +21160,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21175,11 +21175,11 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21188,12 +21188,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21208,7 +21208,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21223,11 +21223,11 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21241,7 +21241,7 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21256,7 +21256,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21271,11 +21271,11 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F436" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -21284,12 +21284,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -23272,7 +23272,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
+          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23287,11 +23287,11 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>Carmen Isolina Cortés Jara</t>
+          <t>FEDERICO CARLOS DORNER PARIS</t>
         </is>
       </c>
       <c r="F478" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -23320,7 +23320,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
+          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -23339,7 +23339,7 @@
         </is>
       </c>
       <c r="F479" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -23368,7 +23368,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
+          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -23383,11 +23383,11 @@
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>FEDERICO CARLOS DORNER PARIS</t>
+          <t>Carmen Isolina Cortés Jara</t>
         </is>
       </c>
       <c r="F480" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
@@ -24136,7 +24136,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
+          <t>Proyecto Consorcio General (e-seia)</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -24151,11 +24151,11 @@
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>ACUA - RÍO S.A.</t>
+          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
         </is>
       </c>
       <c r="F496" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="G496" t="inlineStr">
         <is>
@@ -24164,12 +24164,12 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">
@@ -24184,7 +24184,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Proyecto Consorcio General (e-seia)</t>
+          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -24199,11 +24199,11 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
+          <t>ACUA - RÍO S.A.</t>
         </is>
       </c>
       <c r="F497" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="G497" t="inlineStr">
         <is>
@@ -24212,12 +24212,12 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,11 +2215,11 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,11 +2263,11 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8642,16 +8642,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14167,11 +14167,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14215,11 +14215,11 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -14599,7 +14599,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRANSMISIÓN DEL SUR S.A.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F297" t="n">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15275,7 +15275,7 @@
         </is>
       </c>
       <c r="F311" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15323,7 +15323,7 @@
         </is>
       </c>
       <c r="F312" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15799,11 +15799,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15812,12 +15812,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15847,11 +15847,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17719,11 +17719,11 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17732,12 +17732,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17767,11 +17767,11 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17780,12 +17780,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17815,11 +17815,11 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17828,12 +17828,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17863,11 +17863,11 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17876,12 +17876,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -18055,7 +18055,7 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRANSMISIÓN DEL SUR S.A.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F369" t="n">
@@ -18712,7 +18712,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -18722,16 +18722,16 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F383" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G383" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
@@ -18775,11 +18775,11 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F384" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
@@ -18808,7 +18808,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -18823,11 +18823,11 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F385" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G385" t="inlineStr">
         <is>
@@ -18841,7 +18841,7 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
@@ -18856,7 +18856,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -18866,16 +18866,16 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F386" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G386" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
@@ -21160,7 +21160,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21175,11 +21175,11 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21188,12 +21188,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21208,7 +21208,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21223,11 +21223,11 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21241,7 +21241,7 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21256,7 +21256,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21271,11 +21271,11 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F436" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -21284,12 +21284,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -23272,7 +23272,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
+          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23287,11 +23287,11 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>FEDERICO CARLOS DORNER PARIS</t>
+          <t>Carmen Isolina Cortés Jara</t>
         </is>
       </c>
       <c r="F478" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -23320,7 +23320,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
+          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -23339,7 +23339,7 @@
         </is>
       </c>
       <c r="F479" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -23368,7 +23368,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
+          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -23383,11 +23383,11 @@
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>Carmen Isolina Cortés Jara</t>
+          <t>FEDERICO CARLOS DORNER PARIS</t>
         </is>
       </c>
       <c r="F480" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
@@ -24136,7 +24136,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Proyecto Consorcio General (e-seia)</t>
+          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -24151,11 +24151,11 @@
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
+          <t>ACUA - RÍO S.A.</t>
         </is>
       </c>
       <c r="F496" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="G496" t="inlineStr">
         <is>
@@ -24164,12 +24164,12 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">
@@ -24184,7 +24184,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
+          <t>Proyecto Consorcio General (e-seia)</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -24199,11 +24199,11 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>ACUA - RÍO S.A.</t>
+          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
         </is>
       </c>
       <c r="F497" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="G497" t="inlineStr">
         <is>
@@ -24212,12 +24212,12 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,11 +2263,11 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,11 +2311,11 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14215,11 +14215,11 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14263,11 +14263,11 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15323,7 +15323,7 @@
         </is>
       </c>
       <c r="F312" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="F313" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15847,11 +15847,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15895,11 +15895,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17767,11 +17767,11 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17780,12 +17780,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17815,11 +17815,11 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17828,12 +17828,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17863,11 +17863,11 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17876,12 +17876,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17911,11 +17911,11 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17924,12 +17924,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -18760,7 +18760,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -18770,16 +18770,16 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F384" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
@@ -18823,11 +18823,11 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F385" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G385" t="inlineStr">
         <is>
@@ -18841,7 +18841,7 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
@@ -18856,7 +18856,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -18871,11 +18871,11 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F386" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G386" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
@@ -18904,7 +18904,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18914,16 +18914,16 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F387" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -21208,7 +21208,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21223,11 +21223,11 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21236,12 +21236,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21256,7 +21256,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21271,11 +21271,11 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F436" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -21304,7 +21304,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21319,11 +21319,11 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F437" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G437" t="inlineStr">
         <is>
@@ -21332,12 +21332,12 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -23128,7 +23128,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos, Punta Chaica, Pesca Cisne S.A. (N° Sol. 200101033) (e-seia)</t>
+          <t>Planta de Proceso Tamai (e-seia)</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23143,11 +23143,11 @@
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>Pesca Cisne S.A.</t>
+          <t>Pesquera y Conservera Tamai Ltda.</t>
         </is>
       </c>
       <c r="F475" t="n">
-        <v>58</v>
+        <v>200</v>
       </c>
       <c r="G475" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=132892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125693&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Planta de Proceso Tamai (e-seia)</t>
+          <t>Cultivo de Mitílidos, Punta Chaica, Pesca Cisne S.A. (N° Sol. 200101033) (e-seia)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23191,11 +23191,11 @@
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>Pesquera y Conservera Tamai Ltda.</t>
+          <t>Pesca Cisne S.A.</t>
         </is>
       </c>
       <c r="F476" t="n">
-        <v>200</v>
+        <v>58</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125693&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=132892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -24184,7 +24184,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Proyecto Consorcio General (e-seia)</t>
+          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -24199,11 +24199,11 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
+          <t>ACUA - RÍO S.A.</t>
         </is>
       </c>
       <c r="F497" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="G497" t="inlineStr">
         <is>
@@ -24212,12 +24212,12 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
@@ -24232,7 +24232,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
+          <t>Proyecto Consorcio General (e-seia)</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -24247,11 +24247,11 @@
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>ACUA - RÍO S.A.</t>
+          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
         </is>
       </c>
       <c r="F498" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="G498" t="inlineStr">
         <is>
@@ -24260,12 +24260,12 @@
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,11 +2263,11 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,11 +2311,11 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14215,11 +14215,11 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14263,11 +14263,11 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15323,7 +15323,7 @@
         </is>
       </c>
       <c r="F312" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="F313" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15847,11 +15847,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15895,11 +15895,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17767,11 +17767,11 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17780,12 +17780,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17815,11 +17815,11 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17828,12 +17828,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17863,11 +17863,11 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17876,12 +17876,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17911,11 +17911,11 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17924,12 +17924,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -18760,7 +18760,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -18770,16 +18770,16 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F384" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
@@ -18823,11 +18823,11 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F385" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G385" t="inlineStr">
         <is>
@@ -18841,7 +18841,7 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
@@ -18856,7 +18856,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -18871,11 +18871,11 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F386" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G386" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
@@ -18904,7 +18904,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18914,16 +18914,16 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F387" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -21208,7 +21208,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21223,11 +21223,11 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21236,12 +21236,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21256,7 +21256,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21271,11 +21271,11 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F436" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -21304,7 +21304,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21319,11 +21319,11 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F437" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G437" t="inlineStr">
         <is>
@@ -21332,12 +21332,12 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -23128,7 +23128,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Planta de Proceso Tamai (e-seia)</t>
+          <t>Cultivo de Mitílidos, Punta Chaica, Pesca Cisne S.A. (N° Sol. 200101033) (e-seia)</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23143,11 +23143,11 @@
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>Pesquera y Conservera Tamai Ltda.</t>
+          <t>Pesca Cisne S.A.</t>
         </is>
       </c>
       <c r="F475" t="n">
-        <v>200</v>
+        <v>58</v>
       </c>
       <c r="G475" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125693&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=132892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos, Punta Chaica, Pesca Cisne S.A. (N° Sol. 200101033) (e-seia)</t>
+          <t>Planta de Proceso Tamai (e-seia)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23191,11 +23191,11 @@
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>Pesca Cisne S.A.</t>
+          <t>Pesquera y Conservera Tamai Ltda.</t>
         </is>
       </c>
       <c r="F476" t="n">
-        <v>58</v>
+        <v>200</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=132892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125693&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -24184,7 +24184,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
+          <t>Proyecto Consorcio General (e-seia)</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -24199,11 +24199,11 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>ACUA - RÍO S.A.</t>
+          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
         </is>
       </c>
       <c r="F497" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="G497" t="inlineStr">
         <is>
@@ -24212,12 +24212,12 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
@@ -24232,7 +24232,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Proyecto Consorcio General (e-seia)</t>
+          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -24247,11 +24247,11 @@
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
+          <t>ACUA - RÍO S.A.</t>
         </is>
       </c>
       <c r="F498" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="G498" t="inlineStr">
         <is>
@@ -24260,12 +24260,12 @@
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/05/2022</t>
+          <t>27/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,11 +2263,11 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,11 +2311,11 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14215,11 +14215,11 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14263,11 +14263,11 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15323,7 +15323,7 @@
         </is>
       </c>
       <c r="F312" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="F313" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15847,11 +15847,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15895,11 +15895,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17767,11 +17767,11 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17780,12 +17780,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17815,11 +17815,11 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17828,12 +17828,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17863,11 +17863,11 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17876,12 +17876,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17911,11 +17911,11 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17924,12 +17924,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -18760,7 +18760,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -18770,16 +18770,16 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F384" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
@@ -18823,11 +18823,11 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F385" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G385" t="inlineStr">
         <is>
@@ -18841,7 +18841,7 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
@@ -18856,7 +18856,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -18871,11 +18871,11 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F386" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G386" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
@@ -18904,7 +18904,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18914,16 +18914,16 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F387" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -21208,7 +21208,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21223,11 +21223,11 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21236,12 +21236,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21256,7 +21256,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21271,11 +21271,11 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F436" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -21304,7 +21304,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21319,11 +21319,11 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F437" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G437" t="inlineStr">
         <is>
@@ -21332,12 +21332,12 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -23320,7 +23320,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
+          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -23335,11 +23335,11 @@
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>FEDERICO CARLOS DORNER PARIS</t>
+          <t>Carmen Isolina Cortés Jara</t>
         </is>
       </c>
       <c r="F479" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -23368,7 +23368,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
+          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -23387,7 +23387,7 @@
         </is>
       </c>
       <c r="F480" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
@@ -23416,7 +23416,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
+          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -23431,11 +23431,11 @@
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>Carmen Isolina Cortés Jara</t>
+          <t>FEDERICO CARLOS DORNER PARIS</t>
         </is>
       </c>
       <c r="F481" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G481" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
@@ -24184,7 +24184,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Proyecto Consorcio General (e-seia)</t>
+          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -24199,11 +24199,11 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
+          <t>ACUA - RÍO S.A.</t>
         </is>
       </c>
       <c r="F497" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="G497" t="inlineStr">
         <is>
@@ -24212,12 +24212,12 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
@@ -24232,7 +24232,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
+          <t>Proyecto Consorcio General (e-seia)</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -24247,11 +24247,11 @@
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>ACUA - RÍO S.A.</t>
+          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
         </is>
       </c>
       <c r="F498" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="G498" t="inlineStr">
         <is>
@@ -24260,12 +24260,12 @@
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,11 +2263,11 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,11 +2311,11 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14215,11 +14215,11 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14263,11 +14263,11 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15323,7 +15323,7 @@
         </is>
       </c>
       <c r="F312" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="F313" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15847,11 +15847,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15895,11 +15895,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17767,11 +17767,11 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17780,12 +17780,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17815,11 +17815,11 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17828,12 +17828,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17863,11 +17863,11 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17876,12 +17876,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17911,11 +17911,11 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17924,12 +17924,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -18760,7 +18760,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -18770,16 +18770,16 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F384" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
@@ -18823,11 +18823,11 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F385" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G385" t="inlineStr">
         <is>
@@ -18841,7 +18841,7 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
@@ -18856,7 +18856,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -18871,11 +18871,11 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F386" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G386" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
@@ -18904,7 +18904,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18914,16 +18914,16 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F387" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -21208,7 +21208,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21223,11 +21223,11 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21236,12 +21236,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21256,7 +21256,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21271,11 +21271,11 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F436" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -21304,7 +21304,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21319,11 +21319,11 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F437" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G437" t="inlineStr">
         <is>
@@ -21332,12 +21332,12 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -23320,7 +23320,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
+          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -23335,11 +23335,11 @@
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>Carmen Isolina Cortés Jara</t>
+          <t>FEDERICO CARLOS DORNER PARIS</t>
         </is>
       </c>
       <c r="F479" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -23368,7 +23368,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
+          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -23387,7 +23387,7 @@
         </is>
       </c>
       <c r="F480" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
@@ -23416,7 +23416,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
+          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -23431,11 +23431,11 @@
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>FEDERICO CARLOS DORNER PARIS</t>
+          <t>Carmen Isolina Cortés Jara</t>
         </is>
       </c>
       <c r="F481" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G481" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
@@ -24184,7 +24184,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
+          <t>Proyecto Consorcio General (e-seia)</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -24199,11 +24199,11 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>ACUA - RÍO S.A.</t>
+          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
         </is>
       </c>
       <c r="F497" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="G497" t="inlineStr">
         <is>
@@ -24212,12 +24212,12 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
@@ -24232,7 +24232,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Proyecto Consorcio General (e-seia)</t>
+          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -24247,11 +24247,11 @@
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
+          <t>ACUA - RÍO S.A.</t>
         </is>
       </c>
       <c r="F498" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="G498" t="inlineStr">
         <is>
@@ -24260,12 +24260,12 @@
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -7159,7 +7159,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>MULTIEXPORT PACIFIC FARMS S.A.</t>
+          <t>SALMONES AYSÉN S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>27/05/2022</t>
+          <t>14/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,11 +2263,11 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,11 +2311,11 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14215,11 +14215,11 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14263,11 +14263,11 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15323,7 +15323,7 @@
         </is>
       </c>
       <c r="F312" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="F313" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15847,11 +15847,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15895,11 +15895,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17767,11 +17767,11 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17780,12 +17780,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17815,11 +17815,11 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17828,12 +17828,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17863,11 +17863,11 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17876,12 +17876,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17911,11 +17911,11 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17924,12 +17924,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -18760,7 +18760,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -18770,16 +18770,16 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F384" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
@@ -18823,11 +18823,11 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F385" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G385" t="inlineStr">
         <is>
@@ -18841,7 +18841,7 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
@@ -18856,7 +18856,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -18871,11 +18871,11 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F386" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G386" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
@@ -18904,7 +18904,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18914,16 +18914,16 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F387" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -21208,7 +21208,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21223,11 +21223,11 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21236,12 +21236,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21256,7 +21256,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21271,11 +21271,11 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F436" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -21304,7 +21304,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21319,11 +21319,11 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F437" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G437" t="inlineStr">
         <is>
@@ -21332,12 +21332,12 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -23128,7 +23128,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Planta de Proceso Tamai (e-seia)</t>
+          <t>Cultivo de Mitílidos, Punta Chaica, Pesca Cisne S.A. (N° Sol. 200101033) (e-seia)</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23143,11 +23143,11 @@
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>Pesquera y Conservera Tamai Ltda.</t>
+          <t>Pesca Cisne S.A.</t>
         </is>
       </c>
       <c r="F475" t="n">
-        <v>200</v>
+        <v>58</v>
       </c>
       <c r="G475" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125693&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=132892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos, Punta Chaica, Pesca Cisne S.A. (N° Sol. 200101033) (e-seia)</t>
+          <t>Planta de Proceso Tamai (e-seia)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23191,11 +23191,11 @@
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>Pesca Cisne S.A.</t>
+          <t>Pesquera y Conservera Tamai Ltda.</t>
         </is>
       </c>
       <c r="F476" t="n">
-        <v>58</v>
+        <v>200</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=132892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125693&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -24184,7 +24184,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
+          <t>Proyecto Consorcio General (e-seia)</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -24199,11 +24199,11 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>ACUA - RÍO S.A.</t>
+          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
         </is>
       </c>
       <c r="F497" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="G497" t="inlineStr">
         <is>
@@ -24212,12 +24212,12 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
@@ -24232,7 +24232,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Proyecto Consorcio General (e-seia)</t>
+          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -24247,11 +24247,11 @@
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
+          <t>ACUA - RÍO S.A.</t>
         </is>
       </c>
       <c r="F498" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="G498" t="inlineStr">
         <is>
@@ -24260,12 +24260,12 @@
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -3415,7 +3415,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -14647,7 +14647,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F298" t="n">
@@ -18103,7 +18103,7 @@
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F370" t="n">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -4615,7 +4615,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Salmones Cailín S.A.</t>
+          <t>Procesadora Cailín SpA</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -14167,7 +14167,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Salmones Cailín SpA.</t>
+          <t>Procesadora Cailín SpA</t>
         </is>
       </c>
       <c r="F288" t="n">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -932,7 +932,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,11 +2263,11 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,11 +2311,11 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14215,11 +14215,11 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14263,11 +14263,11 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15323,7 +15323,7 @@
         </is>
       </c>
       <c r="F312" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="F313" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15847,11 +15847,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15895,11 +15895,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17767,11 +17767,11 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17780,12 +17780,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17815,11 +17815,11 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17828,12 +17828,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17863,11 +17863,11 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17876,12 +17876,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17911,11 +17911,11 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17924,12 +17924,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -18760,7 +18760,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -18770,16 +18770,16 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F384" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
@@ -18823,11 +18823,11 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F385" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G385" t="inlineStr">
         <is>
@@ -18841,7 +18841,7 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
@@ -18856,7 +18856,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -18871,11 +18871,11 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F386" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G386" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
@@ -18904,7 +18904,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18914,16 +18914,16 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F387" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -21208,7 +21208,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21223,11 +21223,11 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21236,12 +21236,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21256,7 +21256,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21271,11 +21271,11 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F436" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -21304,7 +21304,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21319,11 +21319,11 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F437" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G437" t="inlineStr">
         <is>
@@ -21332,12 +21332,12 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -23320,7 +23320,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
+          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -23335,11 +23335,11 @@
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>Carmen Isolina Cortés Jara</t>
+          <t>FEDERICO CARLOS DORNER PARIS</t>
         </is>
       </c>
       <c r="F479" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -23368,7 +23368,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
+          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -23387,7 +23387,7 @@
         </is>
       </c>
       <c r="F480" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
@@ -23416,7 +23416,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
+          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -23431,11 +23431,11 @@
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>FEDERICO CARLOS DORNER PARIS</t>
+          <t>Carmen Isolina Cortés Jara</t>
         </is>
       </c>
       <c r="F481" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G481" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
@@ -24184,7 +24184,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
+          <t>Proyecto Consorcio General (e-seia)</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -24199,11 +24199,11 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>ACUA - RÍO S.A.</t>
+          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
         </is>
       </c>
       <c r="F497" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="G497" t="inlineStr">
         <is>
@@ -24212,12 +24212,12 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
@@ -24232,7 +24232,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Proyecto Consorcio General (e-seia)</t>
+          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -24247,11 +24247,11 @@
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
+          <t>ACUA - RÍO S.A.</t>
         </is>
       </c>
       <c r="F498" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="G498" t="inlineStr">
         <is>
@@ -24260,12 +24260,12 @@
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/07/2022</t>
+          <t>27/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -9895,7 +9895,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>CALETA BAY AGUA DULCE SpA</t>
         </is>
       </c>
       <c r="F199" t="n">
@@ -14119,7 +14119,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>CALETA BAY AGUA DULCE SpA</t>
         </is>
       </c>
       <c r="F287" t="n">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -5863,7 +5863,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Salmones Maullín Ltda.</t>
+          <t>AquaChile Maullín Limitada</t>
         </is>
       </c>
       <c r="F115" t="n">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,11 +2311,11 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,11 +2359,11 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,11 +5815,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14263,11 +14263,11 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -14296,7 +14296,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14311,11 +14311,11 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F291" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="F313" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15419,7 +15419,7 @@
         </is>
       </c>
       <c r="F314" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15428,12 +15428,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15895,11 +15895,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15943,11 +15943,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15956,12 +15956,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17815,11 +17815,11 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17828,12 +17828,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17863,11 +17863,11 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17876,12 +17876,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17911,11 +17911,11 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17924,12 +17924,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -17944,7 +17944,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17959,11 +17959,11 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F367" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -17972,12 +17972,12 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -18808,7 +18808,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -18818,16 +18818,16 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F385" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G385" t="inlineStr">
         <is>
@@ -18841,7 +18841,7 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
@@ -18871,11 +18871,11 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F386" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G386" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
@@ -18904,7 +18904,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18919,11 +18919,11 @@
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F387" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -18952,7 +18952,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -18962,16 +18962,16 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F388" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -18985,7 +18985,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -21256,7 +21256,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21271,11 +21271,11 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F436" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -21284,12 +21284,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -21304,7 +21304,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21319,11 +21319,11 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F437" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G437" t="inlineStr">
         <is>
@@ -21337,7 +21337,7 @@
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -21352,7 +21352,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21367,11 +21367,11 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F438" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G438" t="inlineStr">
         <is>
@@ -21380,12 +21380,12 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos, Punta Chaica, Pesca Cisne S.A. (N° Sol. 200101033) (e-seia)</t>
+          <t>Planta de Proceso Tamai (e-seia)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23191,11 +23191,11 @@
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>Pesca Cisne S.A.</t>
+          <t>Pesquera y Conservera Tamai Ltda.</t>
         </is>
       </c>
       <c r="F476" t="n">
-        <v>58</v>
+        <v>200</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=132892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125693&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23224,7 +23224,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Planta de Proceso Tamai (e-seia)</t>
+          <t>Cultivo de Mitílidos, Punta Chaica, Pesca Cisne S.A. (N° Sol. 200101033) (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23239,11 +23239,11 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>Pesquera y Conservera Tamai Ltda.</t>
+          <t>Pesca Cisne S.A.</t>
         </is>
       </c>
       <c r="F477" t="n">
-        <v>200</v>
+        <v>58</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125693&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=132892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -24232,7 +24232,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Proyecto Consorcio General (e-seia)</t>
+          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -24247,11 +24247,11 @@
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
+          <t>ACUA - RÍO S.A.</t>
         </is>
       </c>
       <c r="F498" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="G498" t="inlineStr">
         <is>
@@ -24260,12 +24260,12 @@
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">
@@ -24280,7 +24280,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
+          <t>Proyecto Consorcio General (e-seia)</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24295,11 +24295,11 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>ACUA - RÍO S.A.</t>
+          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
         </is>
       </c>
       <c r="F499" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="G499" t="inlineStr">
         <is>
@@ -24308,12 +24308,12 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,11 +2311,11 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,11 +2359,11 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,11 +5815,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14263,11 +14263,11 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -14296,7 +14296,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14311,11 +14311,11 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F291" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="F313" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15419,7 +15419,7 @@
         </is>
       </c>
       <c r="F314" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15428,12 +15428,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15895,11 +15895,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15943,11 +15943,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15956,12 +15956,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17815,11 +17815,11 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17828,12 +17828,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17863,11 +17863,11 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17876,12 +17876,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17911,11 +17911,11 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17924,12 +17924,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -17944,7 +17944,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17959,11 +17959,11 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F367" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -17972,12 +17972,12 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -18808,7 +18808,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -18818,16 +18818,16 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F385" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G385" t="inlineStr">
         <is>
@@ -18841,7 +18841,7 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
@@ -18871,11 +18871,11 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F386" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G386" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
@@ -18904,7 +18904,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18919,11 +18919,11 @@
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F387" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -18952,7 +18952,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -18962,16 +18962,16 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F388" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -18985,7 +18985,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -21256,7 +21256,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21271,11 +21271,11 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F436" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -21284,12 +21284,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -21304,7 +21304,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21319,11 +21319,11 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F437" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G437" t="inlineStr">
         <is>
@@ -21337,7 +21337,7 @@
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -21352,7 +21352,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21367,11 +21367,11 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F438" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G438" t="inlineStr">
         <is>
@@ -21380,12 +21380,12 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Planta de Proceso Tamai (e-seia)</t>
+          <t>Cultivo de Mitílidos, Punta Chaica, Pesca Cisne S.A. (N° Sol. 200101033) (e-seia)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23191,11 +23191,11 @@
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>Pesquera y Conservera Tamai Ltda.</t>
+          <t>Pesca Cisne S.A.</t>
         </is>
       </c>
       <c r="F476" t="n">
-        <v>200</v>
+        <v>58</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125693&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=132892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23224,7 +23224,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos, Punta Chaica, Pesca Cisne S.A. (N° Sol. 200101033) (e-seia)</t>
+          <t>Planta de Proceso Tamai (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23239,11 +23239,11 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>Pesca Cisne S.A.</t>
+          <t>Pesquera y Conservera Tamai Ltda.</t>
         </is>
       </c>
       <c r="F477" t="n">
-        <v>58</v>
+        <v>200</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=132892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125693&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -24232,7 +24232,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
+          <t>Proyecto Consorcio General (e-seia)</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -24247,11 +24247,11 @@
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>ACUA - RÍO S.A.</t>
+          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
         </is>
       </c>
       <c r="F498" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="G498" t="inlineStr">
         <is>
@@ -24260,12 +24260,12 @@
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">
@@ -24280,7 +24280,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Proyecto Consorcio General (e-seia)</t>
+          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24295,11 +24295,11 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
+          <t>ACUA - RÍO S.A.</t>
         </is>
       </c>
       <c r="F499" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="G499" t="inlineStr">
         <is>
@@ -24308,12 +24308,12 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SALMONES AYSÉN S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,11 +2311,11 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,11 +2359,11 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,11 +5815,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -7207,7 +7207,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>SALMONES AYSÉN S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14263,11 +14263,11 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -14296,7 +14296,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14311,11 +14311,11 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F291" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="F313" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15419,7 +15419,7 @@
         </is>
       </c>
       <c r="F314" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15428,12 +15428,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15895,11 +15895,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15943,11 +15943,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15956,12 +15956,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17815,11 +17815,11 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17828,12 +17828,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17863,11 +17863,11 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17876,12 +17876,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17911,11 +17911,11 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17924,12 +17924,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -17944,7 +17944,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17959,11 +17959,11 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F367" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -17972,12 +17972,12 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -18808,7 +18808,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -18818,16 +18818,16 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F385" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G385" t="inlineStr">
         <is>
@@ -18841,7 +18841,7 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
@@ -18871,11 +18871,11 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F386" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G386" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
@@ -18904,7 +18904,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18919,11 +18919,11 @@
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F387" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -18952,7 +18952,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -18962,16 +18962,16 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F388" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -18985,7 +18985,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -21256,7 +21256,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21271,11 +21271,11 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F436" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -21284,12 +21284,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -21304,7 +21304,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21319,11 +21319,11 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F437" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G437" t="inlineStr">
         <is>
@@ -21337,7 +21337,7 @@
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -21352,7 +21352,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21367,11 +21367,11 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F438" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G438" t="inlineStr">
         <is>
@@ -21380,12 +21380,12 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos, Punta Chaica, Pesca Cisne S.A. (N° Sol. 200101033) (e-seia)</t>
+          <t>Planta de Proceso Tamai (e-seia)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23191,11 +23191,11 @@
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>Pesca Cisne S.A.</t>
+          <t>Pesquera y Conservera Tamai Ltda.</t>
         </is>
       </c>
       <c r="F476" t="n">
-        <v>58</v>
+        <v>200</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=132892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125693&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23224,7 +23224,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Planta de Proceso Tamai (e-seia)</t>
+          <t>Cultivo de Mitílidos, Punta Chaica, Pesca Cisne S.A. (N° Sol. 200101033) (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23239,11 +23239,11 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>Pesquera y Conservera Tamai Ltda.</t>
+          <t>Pesca Cisne S.A.</t>
         </is>
       </c>
       <c r="F477" t="n">
-        <v>200</v>
+        <v>58</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125693&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=132892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -24232,7 +24232,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Proyecto Consorcio General (e-seia)</t>
+          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -24247,11 +24247,11 @@
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
+          <t>ACUA - RÍO S.A.</t>
         </is>
       </c>
       <c r="F498" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="G498" t="inlineStr">
         <is>
@@ -24260,12 +24260,12 @@
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">
@@ -24280,7 +24280,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
+          <t>Proyecto Consorcio General (e-seia)</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24295,11 +24295,11 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>ACUA - RÍO S.A.</t>
+          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
         </is>
       </c>
       <c r="F499" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="G499" t="inlineStr">
         <is>
@@ -24308,12 +24308,12 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,11 +2359,11 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,11 +2407,11 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,11 +5815,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,11 +5863,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,16 +8834,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -14296,7 +14296,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14311,11 +14311,11 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F291" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14359,11 +14359,11 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15419,7 +15419,7 @@
         </is>
       </c>
       <c r="F314" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15428,12 +15428,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15467,7 +15467,7 @@
         </is>
       </c>
       <c r="F315" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15943,11 +15943,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15956,12 +15956,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15991,11 +15991,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17863,11 +17863,11 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17876,12 +17876,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17911,11 +17911,11 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17924,12 +17924,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -17944,7 +17944,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17959,11 +17959,11 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F367" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -17972,12 +17972,12 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -17992,7 +17992,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -18007,11 +18007,11 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F368" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -18020,12 +18020,12 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -18856,7 +18856,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -18866,16 +18866,16 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F386" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G386" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
@@ -18919,11 +18919,11 @@
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F387" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -18952,7 +18952,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -18967,11 +18967,11 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F388" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -18985,7 +18985,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -19000,7 +19000,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -19010,16 +19010,16 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F389" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -21304,7 +21304,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21319,11 +21319,11 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F437" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G437" t="inlineStr">
         <is>
@@ -21332,12 +21332,12 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -21352,7 +21352,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21367,11 +21367,11 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F438" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G438" t="inlineStr">
         <is>
@@ -21385,7 +21385,7 @@
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -21400,7 +21400,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -21415,11 +21415,11 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F439" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G439" t="inlineStr">
         <is>
@@ -21428,12 +21428,12 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
@@ -23416,7 +23416,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
+          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -23431,11 +23431,11 @@
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>FEDERICO CARLOS DORNER PARIS</t>
+          <t>Carmen Isolina Cortés Jara</t>
         </is>
       </c>
       <c r="F481" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G481" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
@@ -23464,7 +23464,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
+          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -23483,7 +23483,7 @@
         </is>
       </c>
       <c r="F482" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G482" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
@@ -23512,7 +23512,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
+          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -23527,11 +23527,11 @@
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>Carmen Isolina Cortés Jara</t>
+          <t>FEDERICO CARLOS DORNER PARIS</t>
         </is>
       </c>
       <c r="F483" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G483" t="inlineStr">
         <is>
@@ -23545,7 +23545,7 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
@@ -24280,7 +24280,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Proyecto Consorcio General (e-seia)</t>
+          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24295,11 +24295,11 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
+          <t>ACUA - RÍO S.A.</t>
         </is>
       </c>
       <c r="F499" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="G499" t="inlineStr">
         <is>
@@ -24308,12 +24308,12 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
@@ -24328,7 +24328,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
+          <t>Proyecto Consorcio General (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24343,11 +24343,11 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>ACUA - RÍO S.A.</t>
+          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
         </is>
       </c>
       <c r="F500" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -24356,12 +24356,12 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,11 +2359,11 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,11 +2407,11 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,11 +5815,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,11 +5863,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,16 +8834,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -14296,7 +14296,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14311,11 +14311,11 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F291" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14359,11 +14359,11 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15419,7 +15419,7 @@
         </is>
       </c>
       <c r="F314" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15428,12 +15428,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15467,7 +15467,7 @@
         </is>
       </c>
       <c r="F315" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15943,11 +15943,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15956,12 +15956,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15991,11 +15991,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17863,11 +17863,11 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17876,12 +17876,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17911,11 +17911,11 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17924,12 +17924,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -17944,7 +17944,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17959,11 +17959,11 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F367" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -17972,12 +17972,12 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -17992,7 +17992,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -18007,11 +18007,11 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F368" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -18020,12 +18020,12 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -18856,7 +18856,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -18866,16 +18866,16 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F386" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G386" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
@@ -18919,11 +18919,11 @@
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F387" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -18952,7 +18952,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -18967,11 +18967,11 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F388" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -18985,7 +18985,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -19000,7 +19000,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -19010,16 +19010,16 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F389" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -21304,7 +21304,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21319,11 +21319,11 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F437" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G437" t="inlineStr">
         <is>
@@ -21332,12 +21332,12 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -21352,7 +21352,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21367,11 +21367,11 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F438" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G438" t="inlineStr">
         <is>
@@ -21385,7 +21385,7 @@
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -21400,7 +21400,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -21415,11 +21415,11 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F439" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G439" t="inlineStr">
         <is>
@@ -21428,12 +21428,12 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
@@ -23416,7 +23416,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
+          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -23431,11 +23431,11 @@
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>Carmen Isolina Cortés Jara</t>
+          <t>FEDERICO CARLOS DORNER PARIS</t>
         </is>
       </c>
       <c r="F481" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G481" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
@@ -23464,7 +23464,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
+          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -23483,7 +23483,7 @@
         </is>
       </c>
       <c r="F482" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="G482" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
@@ -23512,7 +23512,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
+          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -23527,11 +23527,11 @@
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>FEDERICO CARLOS DORNER PARIS</t>
+          <t>Carmen Isolina Cortés Jara</t>
         </is>
       </c>
       <c r="F483" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G483" t="inlineStr">
         <is>
@@ -23545,7 +23545,7 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
@@ -24280,7 +24280,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
+          <t>Proyecto Consorcio General (e-seia)</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24295,11 +24295,11 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>ACUA - RÍO S.A.</t>
+          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
         </is>
       </c>
       <c r="F499" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="G499" t="inlineStr">
         <is>
@@ -24308,12 +24308,12 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
@@ -24328,7 +24328,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Proyecto Consorcio General (e-seia)</t>
+          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24343,11 +24343,11 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
+          <t>ACUA - RÍO S.A.</t>
         </is>
       </c>
       <c r="F500" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -24356,12 +24356,12 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/08/2022</t>
+          <t>24/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>02/09/2022</t>
+          <t>09/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,11 +2407,11 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,11 +2455,11 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,11 +5863,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,16 +8834,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14359,11 +14359,11 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15467,7 +15467,7 @@
         </is>
       </c>
       <c r="F315" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15515,7 +15515,7 @@
         </is>
       </c>
       <c r="F316" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15524,12 +15524,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15991,11 +15991,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16039,11 +16039,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17911,11 +17911,11 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17924,12 +17924,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -17944,7 +17944,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17959,11 +17959,11 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F367" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -17972,12 +17972,12 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -17992,7 +17992,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -18007,11 +18007,11 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F368" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -18020,12 +18020,12 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -18040,7 +18040,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -18055,11 +18055,11 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F369" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -18068,12 +18068,12 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -18904,7 +18904,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18914,16 +18914,16 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F387" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -18967,11 +18967,11 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F388" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -18985,7 +18985,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -19000,7 +19000,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -19015,11 +19015,11 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F389" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -19048,7 +19048,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -19058,16 +19058,16 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F390" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -21352,7 +21352,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21367,11 +21367,11 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F438" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G438" t="inlineStr">
         <is>
@@ -21380,12 +21380,12 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -21400,7 +21400,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -21415,11 +21415,11 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F439" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G439" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
@@ -21448,7 +21448,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -21463,11 +21463,11 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F440" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G440" t="inlineStr">
         <is>
@@ -21476,12 +21476,12 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
@@ -23464,7 +23464,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
+          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -23479,11 +23479,11 @@
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>FEDERICO CARLOS DORNER PARIS</t>
+          <t>Carmen Isolina Cortés Jara</t>
         </is>
       </c>
       <c r="F482" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G482" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
@@ -23512,7 +23512,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
+          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -23531,7 +23531,7 @@
         </is>
       </c>
       <c r="F483" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G483" t="inlineStr">
         <is>
@@ -23545,7 +23545,7 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
@@ -23560,7 +23560,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
+          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -23575,11 +23575,11 @@
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>Carmen Isolina Cortés Jara</t>
+          <t>FEDERICO CARLOS DORNER PARIS</t>
         </is>
       </c>
       <c r="F484" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G484" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
@@ -24328,7 +24328,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Proyecto Consorcio General (e-seia)</t>
+          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24343,11 +24343,11 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
+          <t>ACUA - RÍO S.A.</t>
         </is>
       </c>
       <c r="F500" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -24356,12 +24356,12 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
+          <t>Proyecto Consorcio General (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24391,11 +24391,11 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>ACUA - RÍO S.A.</t>
+          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
         </is>
       </c>
       <c r="F501" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="G501" t="inlineStr">
         <is>
@@ -24404,12 +24404,12 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,11 +2407,11 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,11 +2455,11 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,11 +5863,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,16 +8834,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14359,11 +14359,11 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15467,7 +15467,7 @@
         </is>
       </c>
       <c r="F315" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15515,7 +15515,7 @@
         </is>
       </c>
       <c r="F316" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15524,12 +15524,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15991,11 +15991,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16039,11 +16039,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17911,11 +17911,11 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17924,12 +17924,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -17944,7 +17944,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17959,11 +17959,11 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F367" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -17972,12 +17972,12 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -17992,7 +17992,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -18007,11 +18007,11 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F368" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -18020,12 +18020,12 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -18040,7 +18040,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -18055,11 +18055,11 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F369" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -18068,12 +18068,12 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -18904,7 +18904,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18914,16 +18914,16 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F387" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -18967,11 +18967,11 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F388" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -18985,7 +18985,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -19000,7 +19000,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -19015,11 +19015,11 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F389" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -19048,7 +19048,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -19058,16 +19058,16 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F390" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -21352,7 +21352,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21367,11 +21367,11 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F438" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G438" t="inlineStr">
         <is>
@@ -21380,12 +21380,12 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -21400,7 +21400,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -21415,11 +21415,11 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F439" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G439" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
@@ -21448,7 +21448,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -21463,11 +21463,11 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F440" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G440" t="inlineStr">
         <is>
@@ -21476,12 +21476,12 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
@@ -23464,7 +23464,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
+          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -23479,11 +23479,11 @@
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>Carmen Isolina Cortés Jara</t>
+          <t>FEDERICO CARLOS DORNER PARIS</t>
         </is>
       </c>
       <c r="F482" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G482" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
@@ -23512,7 +23512,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
+          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -23531,7 +23531,7 @@
         </is>
       </c>
       <c r="F483" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="G483" t="inlineStr">
         <is>
@@ -23545,7 +23545,7 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
@@ -23560,7 +23560,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
+          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -23575,11 +23575,11 @@
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>FEDERICO CARLOS DORNER PARIS</t>
+          <t>Carmen Isolina Cortés Jara</t>
         </is>
       </c>
       <c r="F484" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G484" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
@@ -24328,7 +24328,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
+          <t>Proyecto Consorcio General (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24343,11 +24343,11 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>ACUA - RÍO S.A.</t>
+          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
         </is>
       </c>
       <c r="F500" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -24356,12 +24356,12 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Proyecto Consorcio General (e-seia)</t>
+          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24391,11 +24391,11 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
+          <t>ACUA - RÍO S.A.</t>
         </is>
       </c>
       <c r="F501" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="G501" t="inlineStr">
         <is>
@@ -24404,12 +24404,12 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -591,7 +591,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>14/06/2022</t>
+          <t>27/05/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -14455,7 +14455,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>ORIZON S.A.</t>
+          <t>Empresa Pesquera Apiao S.A.</t>
         </is>
       </c>
       <c r="F294" t="n">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,11 +2407,11 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,11 +2455,11 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,11 +5863,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,16 +8834,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14359,11 +14359,11 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15467,7 +15467,7 @@
         </is>
       </c>
       <c r="F315" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15515,7 +15515,7 @@
         </is>
       </c>
       <c r="F316" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15524,12 +15524,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15991,11 +15991,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16039,11 +16039,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17911,11 +17911,11 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17924,12 +17924,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -17944,7 +17944,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17959,11 +17959,11 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F367" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -17972,12 +17972,12 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -17992,7 +17992,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -18007,11 +18007,11 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F368" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -18020,12 +18020,12 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -18040,7 +18040,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -18055,11 +18055,11 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F369" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -18068,12 +18068,12 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -18904,7 +18904,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18914,16 +18914,16 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F387" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -18967,11 +18967,11 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F388" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -18985,7 +18985,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -19000,7 +19000,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -19015,11 +19015,11 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F389" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -19048,7 +19048,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -19058,16 +19058,16 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F390" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -21352,7 +21352,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21367,11 +21367,11 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F438" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G438" t="inlineStr">
         <is>
@@ -21380,12 +21380,12 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -21400,7 +21400,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -21415,11 +21415,11 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F439" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G439" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
@@ -21448,7 +21448,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -21463,11 +21463,11 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F440" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G440" t="inlineStr">
         <is>
@@ -21476,12 +21476,12 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
@@ -23464,7 +23464,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
+          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -23479,11 +23479,11 @@
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>Carmen Isolina Cortés Jara</t>
+          <t>FEDERICO CARLOS DORNER PARIS</t>
         </is>
       </c>
       <c r="F482" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G482" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
@@ -23512,7 +23512,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
+          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -23531,7 +23531,7 @@
         </is>
       </c>
       <c r="F483" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="G483" t="inlineStr">
         <is>
@@ -23545,7 +23545,7 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
@@ -23560,7 +23560,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
+          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -23575,11 +23575,11 @@
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>FEDERICO CARLOS DORNER PARIS</t>
+          <t>Carmen Isolina Cortés Jara</t>
         </is>
       </c>
       <c r="F484" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G484" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
@@ -24328,7 +24328,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
+          <t>Proyecto Consorcio General (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24343,11 +24343,11 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>ACUA - RÍO S.A.</t>
+          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
         </is>
       </c>
       <c r="F500" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -24356,12 +24356,12 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Proyecto Consorcio General (e-seia)</t>
+          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24391,11 +24391,11 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
+          <t>ACUA - RÍO S.A.</t>
         </is>
       </c>
       <c r="F501" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="G501" t="inlineStr">
         <is>
@@ -24404,12 +24404,12 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,11 +2407,11 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,11 +2455,11 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,11 +5863,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,16 +8834,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14359,11 +14359,11 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15467,7 +15467,7 @@
         </is>
       </c>
       <c r="F315" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15515,7 +15515,7 @@
         </is>
       </c>
       <c r="F316" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15524,12 +15524,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15991,11 +15991,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16039,11 +16039,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17911,11 +17911,11 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17924,12 +17924,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -17944,7 +17944,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17959,11 +17959,11 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F367" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -17972,12 +17972,12 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -17992,7 +17992,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -18007,11 +18007,11 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F368" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -18020,12 +18020,12 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -18040,7 +18040,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -18055,11 +18055,11 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F369" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -18068,12 +18068,12 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -18904,7 +18904,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18914,16 +18914,16 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F387" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -18967,11 +18967,11 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F388" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -18985,7 +18985,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -19000,7 +19000,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -19015,11 +19015,11 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F389" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -19048,7 +19048,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -19058,16 +19058,16 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F390" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -21352,7 +21352,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21367,11 +21367,11 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F438" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G438" t="inlineStr">
         <is>
@@ -21380,12 +21380,12 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -21400,7 +21400,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -21415,11 +21415,11 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F439" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G439" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
@@ -21448,7 +21448,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -21463,11 +21463,11 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F440" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G440" t="inlineStr">
         <is>
@@ -21476,12 +21476,12 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
@@ -23272,7 +23272,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos, Punta Chaica, Pesca Cisne S.A. (N° Sol. 200101033) (e-seia)</t>
+          <t>Planta de Proceso Tamai (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23287,11 +23287,11 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>Pesca Cisne S.A.</t>
+          <t>Pesquera y Conservera Tamai Ltda.</t>
         </is>
       </c>
       <c r="F478" t="n">
-        <v>58</v>
+        <v>200</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=132892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125693&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -23320,7 +23320,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Planta de Proceso Tamai (e-seia)</t>
+          <t>Cultivo de Mitílidos, Punta Chaica, Pesca Cisne S.A. (N° Sol. 200101033) (e-seia)</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -23335,11 +23335,11 @@
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>Pesquera y Conservera Tamai Ltda.</t>
+          <t>Pesca Cisne S.A.</t>
         </is>
       </c>
       <c r="F479" t="n">
-        <v>200</v>
+        <v>58</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125693&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=132892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -24328,7 +24328,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Proyecto Consorcio General (e-seia)</t>
+          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24343,11 +24343,11 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
+          <t>ACUA - RÍO S.A.</t>
         </is>
       </c>
       <c r="F500" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -24356,12 +24356,12 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
+          <t>Proyecto Consorcio General (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24391,11 +24391,11 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>ACUA - RÍO S.A.</t>
+          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
         </is>
       </c>
       <c r="F501" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="G501" t="inlineStr">
         <is>
@@ -24404,12 +24404,12 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,11 +2407,11 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,11 +2455,11 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,11 +5863,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,16 +8834,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14359,11 +14359,11 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15467,7 +15467,7 @@
         </is>
       </c>
       <c r="F315" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15515,7 +15515,7 @@
         </is>
       </c>
       <c r="F316" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15524,12 +15524,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15991,11 +15991,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16039,11 +16039,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17911,11 +17911,11 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17924,12 +17924,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -17944,7 +17944,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17959,11 +17959,11 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F367" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -17972,12 +17972,12 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -17992,7 +17992,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -18007,11 +18007,11 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F368" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -18020,12 +18020,12 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -18040,7 +18040,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -18055,11 +18055,11 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F369" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -18068,12 +18068,12 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -18904,7 +18904,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18914,16 +18914,16 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F387" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -18967,11 +18967,11 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F388" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -18985,7 +18985,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -19000,7 +19000,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -19015,11 +19015,11 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F389" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -19048,7 +19048,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -19058,16 +19058,16 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F390" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -21352,7 +21352,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21367,11 +21367,11 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F438" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G438" t="inlineStr">
         <is>
@@ -21380,12 +21380,12 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -21400,7 +21400,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -21415,11 +21415,11 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F439" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G439" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
@@ -21448,7 +21448,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -21463,11 +21463,11 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F440" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G440" t="inlineStr">
         <is>
@@ -21476,12 +21476,12 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
@@ -23272,7 +23272,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Planta de Proceso Tamai (e-seia)</t>
+          <t>Cultivo de Mitílidos, Punta Chaica, Pesca Cisne S.A. (N° Sol. 200101033) (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23287,11 +23287,11 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>Pesquera y Conservera Tamai Ltda.</t>
+          <t>Pesca Cisne S.A.</t>
         </is>
       </c>
       <c r="F478" t="n">
-        <v>200</v>
+        <v>58</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125693&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=132892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -23320,7 +23320,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos, Punta Chaica, Pesca Cisne S.A. (N° Sol. 200101033) (e-seia)</t>
+          <t>Planta de Proceso Tamai (e-seia)</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -23335,11 +23335,11 @@
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>Pesca Cisne S.A.</t>
+          <t>Pesquera y Conservera Tamai Ltda.</t>
         </is>
       </c>
       <c r="F479" t="n">
-        <v>58</v>
+        <v>200</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=132892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125693&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -24328,7 +24328,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
+          <t>Proyecto Consorcio General (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24343,11 +24343,11 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>ACUA - RÍO S.A.</t>
+          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
         </is>
       </c>
       <c r="F500" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -24356,12 +24356,12 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Proyecto Consorcio General (e-seia)</t>
+          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24391,11 +24391,11 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
+          <t>ACUA - RÍO S.A.</t>
         </is>
       </c>
       <c r="F501" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="G501" t="inlineStr">
         <is>
@@ -24404,12 +24404,12 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,11 +2407,11 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,11 +2455,11 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -5527,7 +5527,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>ORIZON S.A.</t>
+          <t>Empresa Pesquera Apiao S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,11 +5863,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,16 +8834,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -14263,7 +14263,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>ORIZON S.A.</t>
+          <t>Empresa Pesquera Apiao S.A.</t>
         </is>
       </c>
       <c r="F290" t="n">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14359,11 +14359,11 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -14503,7 +14503,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>ORIZON S.A.</t>
+          <t>Empresa Pesquera Apiao S.A.</t>
         </is>
       </c>
       <c r="F295" t="n">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15467,7 +15467,7 @@
         </is>
       </c>
       <c r="F315" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15515,7 +15515,7 @@
         </is>
       </c>
       <c r="F316" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15524,12 +15524,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15991,11 +15991,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16039,11 +16039,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17911,11 +17911,11 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17924,12 +17924,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -17944,7 +17944,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17959,11 +17959,11 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F367" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -17972,12 +17972,12 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -17992,7 +17992,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -18007,11 +18007,11 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F368" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -18020,12 +18020,12 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -18040,7 +18040,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -18055,11 +18055,11 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F369" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -18068,12 +18068,12 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -18904,7 +18904,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18914,16 +18914,16 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F387" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -18967,11 +18967,11 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F388" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -18985,7 +18985,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -19000,7 +19000,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -19015,11 +19015,11 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F389" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -19048,7 +19048,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -19058,16 +19058,16 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F390" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -21352,7 +21352,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21367,11 +21367,11 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F438" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G438" t="inlineStr">
         <is>
@@ -21380,12 +21380,12 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -21400,7 +21400,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -21415,11 +21415,11 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F439" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G439" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
@@ -21448,7 +21448,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -21463,11 +21463,11 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F440" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G440" t="inlineStr">
         <is>
@@ -21476,12 +21476,12 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
@@ -23272,7 +23272,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos, Punta Chaica, Pesca Cisne S.A. (N° Sol. 200101033) (e-seia)</t>
+          <t>Planta de Proceso Tamai (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23287,11 +23287,11 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>Pesca Cisne S.A.</t>
+          <t>Pesquera y Conservera Tamai Ltda.</t>
         </is>
       </c>
       <c r="F478" t="n">
-        <v>58</v>
+        <v>200</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=132892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125693&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -23320,7 +23320,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Planta de Proceso Tamai (e-seia)</t>
+          <t>Cultivo de Mitílidos, Punta Chaica, Pesca Cisne S.A. (N° Sol. 200101033) (e-seia)</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -23335,11 +23335,11 @@
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>Pesquera y Conservera Tamai Ltda.</t>
+          <t>Pesca Cisne S.A.</t>
         </is>
       </c>
       <c r="F479" t="n">
-        <v>200</v>
+        <v>58</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125693&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=132892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -24328,7 +24328,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Proyecto Consorcio General (e-seia)</t>
+          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24343,11 +24343,11 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
+          <t>ACUA - RÍO S.A.</t>
         </is>
       </c>
       <c r="F500" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -24356,12 +24356,12 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
+          <t>Proyecto Consorcio General (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24391,11 +24391,11 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>ACUA - RÍO S.A.</t>
+          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
         </is>
       </c>
       <c r="F501" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="G501" t="inlineStr">
         <is>
@@ -24404,12 +24404,12 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -23272,7 +23272,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Planta de Proceso Tamai (e-seia)</t>
+          <t>Cultivo de Mitílidos, Punta Chaica, Pesca Cisne S.A. (N° Sol. 200101033) (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23287,11 +23287,11 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>Pesquera y Conservera Tamai Ltda.</t>
+          <t>Pesca Cisne S.A.</t>
         </is>
       </c>
       <c r="F478" t="n">
-        <v>200</v>
+        <v>58</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125693&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=132892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -23320,7 +23320,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos, Punta Chaica, Pesca Cisne S.A. (N° Sol. 200101033) (e-seia)</t>
+          <t>Planta de Proceso Tamai (e-seia)</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -23335,11 +23335,11 @@
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>Pesca Cisne S.A.</t>
+          <t>Pesquera y Conservera Tamai Ltda.</t>
         </is>
       </c>
       <c r="F479" t="n">
-        <v>58</v>
+        <v>200</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=132892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125693&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -23464,7 +23464,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
+          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -23479,11 +23479,11 @@
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>FEDERICO CARLOS DORNER PARIS</t>
+          <t>Carmen Isolina Cortés Jara</t>
         </is>
       </c>
       <c r="F482" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G482" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
@@ -23512,7 +23512,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
+          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -23531,7 +23531,7 @@
         </is>
       </c>
       <c r="F483" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G483" t="inlineStr">
         <is>
@@ -23545,7 +23545,7 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
@@ -23560,7 +23560,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
+          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -23575,11 +23575,11 @@
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>Carmen Isolina Cortés Jara</t>
+          <t>FEDERICO CARLOS DORNER PARIS</t>
         </is>
       </c>
       <c r="F484" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G484" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,11 +2407,11 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,11 +2455,11 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -5527,7 +5527,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Empresa Pesquera Apiao S.A.</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,11 +5863,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,16 +8834,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -14263,7 +14263,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Empresa Pesquera Apiao S.A.</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F290" t="n">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14359,11 +14359,11 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -14455,7 +14455,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Empresa Pesquera Apiao S.A.</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F294" t="n">
@@ -14503,7 +14503,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Empresa Pesquera Apiao S.A.</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F295" t="n">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15467,7 +15467,7 @@
         </is>
       </c>
       <c r="F315" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15515,7 +15515,7 @@
         </is>
       </c>
       <c r="F316" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15524,12 +15524,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15991,11 +15991,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16039,11 +16039,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17911,11 +17911,11 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17924,12 +17924,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -17944,7 +17944,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17959,11 +17959,11 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F367" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -17972,12 +17972,12 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -17992,7 +17992,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -18007,11 +18007,11 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F368" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -18020,12 +18020,12 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -18040,7 +18040,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -18055,11 +18055,11 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F369" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -18068,12 +18068,12 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -18904,7 +18904,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18914,16 +18914,16 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F387" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -18967,11 +18967,11 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F388" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -18985,7 +18985,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -19000,7 +19000,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -19015,11 +19015,11 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F389" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -19048,7 +19048,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -19058,16 +19058,16 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F390" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -21352,7 +21352,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21367,11 +21367,11 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F438" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G438" t="inlineStr">
         <is>
@@ -21380,12 +21380,12 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -21400,7 +21400,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -21415,11 +21415,11 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F439" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G439" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
@@ -21448,7 +21448,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -21463,11 +21463,11 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F440" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G440" t="inlineStr">
         <is>
@@ -21476,12 +21476,12 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
@@ -23464,7 +23464,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
+          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -23479,11 +23479,11 @@
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>FEDERICO CARLOS DORNER PARIS</t>
+          <t>Carmen Isolina Cortés Jara</t>
         </is>
       </c>
       <c r="F482" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G482" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
@@ -23512,7 +23512,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
+          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -23531,7 +23531,7 @@
         </is>
       </c>
       <c r="F483" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G483" t="inlineStr">
         <is>
@@ -23545,7 +23545,7 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
@@ -23560,7 +23560,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
+          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -23575,11 +23575,11 @@
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>Carmen Isolina Cortés Jara</t>
+          <t>FEDERICO CARLOS DORNER PARIS</t>
         </is>
       </c>
       <c r="F484" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G484" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
@@ -24328,7 +24328,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Proyecto Consorcio General (e-seia)</t>
+          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24343,11 +24343,11 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
+          <t>ACUA - RÍO S.A.</t>
         </is>
       </c>
       <c r="F500" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -24356,12 +24356,12 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
+          <t>Proyecto Consorcio General (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24391,11 +24391,11 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>ACUA - RÍO S.A.</t>
+          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
         </is>
       </c>
       <c r="F501" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="G501" t="inlineStr">
         <is>
@@ -24404,12 +24404,12 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -884,7 +884,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,11 +2407,11 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,11 +2455,11 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,11 +5863,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,16 +8834,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14359,11 +14359,11 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15467,7 +15467,7 @@
         </is>
       </c>
       <c r="F315" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15515,7 +15515,7 @@
         </is>
       </c>
       <c r="F316" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15524,12 +15524,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15991,11 +15991,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16039,11 +16039,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17911,11 +17911,11 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17924,12 +17924,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -17944,7 +17944,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17959,11 +17959,11 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F367" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -17972,12 +17972,12 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -17992,7 +17992,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -18007,11 +18007,11 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F368" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -18020,12 +18020,12 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -18040,7 +18040,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -18055,11 +18055,11 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F369" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -18068,12 +18068,12 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -18904,7 +18904,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18914,16 +18914,16 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F387" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -18967,11 +18967,11 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F388" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -18985,7 +18985,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -19000,7 +19000,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -19015,11 +19015,11 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F389" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -19048,7 +19048,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -19058,16 +19058,16 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F390" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -21352,7 +21352,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21367,11 +21367,11 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F438" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G438" t="inlineStr">
         <is>
@@ -21380,12 +21380,12 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -21400,7 +21400,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -21415,11 +21415,11 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F439" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G439" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
@@ -21448,7 +21448,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -21463,11 +21463,11 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F440" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G440" t="inlineStr">
         <is>
@@ -21476,12 +21476,12 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
@@ -24328,7 +24328,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Proyecto Consorcio General (e-seia)</t>
+          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24343,11 +24343,11 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
+          <t>ACUA - RÍO S.A.</t>
         </is>
       </c>
       <c r="F500" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -24356,12 +24356,12 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
+          <t>Proyecto Consorcio General (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24391,11 +24391,11 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>ACUA - RÍO S.A.</t>
+          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
         </is>
       </c>
       <c r="F501" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="G501" t="inlineStr">
         <is>
@@ -24404,12 +24404,12 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,11 +2407,11 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,11 +2455,11 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,11 +5863,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,16 +8834,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14359,11 +14359,11 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15467,7 +15467,7 @@
         </is>
       </c>
       <c r="F315" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15515,7 +15515,7 @@
         </is>
       </c>
       <c r="F316" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15524,12 +15524,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15991,11 +15991,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16039,11 +16039,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17911,11 +17911,11 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17924,12 +17924,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -17944,7 +17944,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17959,11 +17959,11 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F367" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -17972,12 +17972,12 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -17992,7 +17992,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -18007,11 +18007,11 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F368" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -18020,12 +18020,12 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -18040,7 +18040,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -18055,11 +18055,11 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F369" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -18068,12 +18068,12 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -18904,7 +18904,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18914,16 +18914,16 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F387" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -18967,11 +18967,11 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F388" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -18985,7 +18985,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -19000,7 +19000,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -19015,11 +19015,11 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F389" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -19048,7 +19048,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -19058,16 +19058,16 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F390" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -21352,7 +21352,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21367,11 +21367,11 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F438" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G438" t="inlineStr">
         <is>
@@ -21380,12 +21380,12 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -21400,7 +21400,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -21415,11 +21415,11 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F439" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G439" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
@@ -21448,7 +21448,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -21463,11 +21463,11 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F440" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G440" t="inlineStr">
         <is>
@@ -21476,12 +21476,12 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
@@ -24328,7 +24328,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
+          <t>Proyecto Consorcio General (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24343,11 +24343,11 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>ACUA - RÍO S.A.</t>
+          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
         </is>
       </c>
       <c r="F500" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -24356,12 +24356,12 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Proyecto Consorcio General (e-seia)</t>
+          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24391,11 +24391,11 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
+          <t>ACUA - RÍO S.A.</t>
         </is>
       </c>
       <c r="F501" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="G501" t="inlineStr">
         <is>
@@ -24404,12 +24404,12 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,11 +2407,11 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,11 +2455,11 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,11 +5863,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,16 +8834,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14359,11 +14359,11 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15467,7 +15467,7 @@
         </is>
       </c>
       <c r="F315" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15515,7 +15515,7 @@
         </is>
       </c>
       <c r="F316" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15524,12 +15524,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15991,11 +15991,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16039,11 +16039,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17911,11 +17911,11 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17924,12 +17924,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -17944,7 +17944,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17959,11 +17959,11 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F367" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -17972,12 +17972,12 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -17992,7 +17992,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -18007,11 +18007,11 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F368" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -18020,12 +18020,12 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -18040,7 +18040,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -18055,11 +18055,11 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F369" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -18068,12 +18068,12 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -18904,7 +18904,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18914,16 +18914,16 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F387" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -18967,11 +18967,11 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F388" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -18985,7 +18985,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -19000,7 +19000,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -19015,11 +19015,11 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F389" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -19048,7 +19048,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -19058,16 +19058,16 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F390" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -21352,7 +21352,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21367,11 +21367,11 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F438" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G438" t="inlineStr">
         <is>
@@ -21380,12 +21380,12 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -21400,7 +21400,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -21415,11 +21415,11 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F439" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G439" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
@@ -21448,7 +21448,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -21463,11 +21463,11 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F440" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G440" t="inlineStr">
         <is>
@@ -21476,12 +21476,12 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
@@ -24328,7 +24328,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Proyecto Consorcio General (e-seia)</t>
+          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24343,11 +24343,11 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
+          <t>ACUA - RÍO S.A.</t>
         </is>
       </c>
       <c r="F500" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -24356,12 +24356,12 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
+          <t>Proyecto Consorcio General (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24391,11 +24391,11 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>ACUA - RÍO S.A.</t>
+          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
         </is>
       </c>
       <c r="F501" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="G501" t="inlineStr">
         <is>
@@ -24404,12 +24404,12 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,11 +2407,11 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,11 +2455,11 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,11 +5863,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,16 +8834,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14359,11 +14359,11 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15467,7 +15467,7 @@
         </is>
       </c>
       <c r="F315" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15515,7 +15515,7 @@
         </is>
       </c>
       <c r="F316" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15524,12 +15524,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15991,11 +15991,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16039,11 +16039,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17911,11 +17911,11 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17924,12 +17924,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -17944,7 +17944,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17959,11 +17959,11 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F367" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -17972,12 +17972,12 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -17992,7 +17992,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -18007,11 +18007,11 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F368" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -18020,12 +18020,12 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -18040,7 +18040,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -18055,11 +18055,11 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F369" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -18068,12 +18068,12 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -18904,7 +18904,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18914,16 +18914,16 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F387" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -18967,11 +18967,11 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F388" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -18985,7 +18985,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -19000,7 +19000,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -19015,11 +19015,11 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F389" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -19048,7 +19048,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -19058,16 +19058,16 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F390" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -19207,7 +19207,7 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F393" t="n">
@@ -21352,7 +21352,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21367,11 +21367,11 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F438" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G438" t="inlineStr">
         <is>
@@ -21380,12 +21380,12 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -21400,7 +21400,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -21415,11 +21415,11 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F439" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G439" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
@@ -21448,7 +21448,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -21463,11 +21463,11 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F440" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G440" t="inlineStr">
         <is>
@@ -21476,12 +21476,12 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
@@ -24328,7 +24328,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
+          <t>Proyecto Consorcio General (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24343,11 +24343,11 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>ACUA - RÍO S.A.</t>
+          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
         </is>
       </c>
       <c r="F500" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -24356,12 +24356,12 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Proyecto Consorcio General (e-seia)</t>
+          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24391,11 +24391,11 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
+          <t>ACUA - RÍO S.A.</t>
         </is>
       </c>
       <c r="F501" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="G501" t="inlineStr">
         <is>
@@ -24404,12 +24404,12 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -788,7 +788,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,11 +2407,11 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,11 +2455,11 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,11 +5863,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,16 +8834,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14359,11 +14359,11 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15467,7 +15467,7 @@
         </is>
       </c>
       <c r="F315" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15515,7 +15515,7 @@
         </is>
       </c>
       <c r="F316" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15524,12 +15524,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15991,11 +15991,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16039,11 +16039,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17911,11 +17911,11 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17924,12 +17924,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -17944,7 +17944,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17959,11 +17959,11 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F367" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -17972,12 +17972,12 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -17992,7 +17992,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -18007,11 +18007,11 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F368" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -18020,12 +18020,12 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -18040,7 +18040,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -18055,11 +18055,11 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F369" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -18068,12 +18068,12 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -18343,7 +18343,7 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>Transportes Patagonia Travelling Service Limitada</t>
+          <t>ABICK S.A</t>
         </is>
       </c>
       <c r="F375" t="n">
@@ -18904,7 +18904,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18914,16 +18914,16 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F387" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -18967,11 +18967,11 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F388" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -18985,7 +18985,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -19000,7 +19000,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -19015,11 +19015,11 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F389" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -19048,7 +19048,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -19058,16 +19058,16 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F390" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -21352,7 +21352,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21367,11 +21367,11 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F438" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G438" t="inlineStr">
         <is>
@@ -21380,12 +21380,12 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -21400,7 +21400,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -21415,11 +21415,11 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F439" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G439" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
@@ -21448,7 +21448,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -21463,11 +21463,11 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F440" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G440" t="inlineStr">
         <is>
@@ -21476,12 +21476,12 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
@@ -24328,7 +24328,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
+          <t>Proyecto Consorcio General (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24343,11 +24343,11 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>ACUA - RÍO S.A.</t>
+          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
         </is>
       </c>
       <c r="F500" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -24356,12 +24356,12 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Proyecto Consorcio General (e-seia)</t>
+          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24391,11 +24391,11 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
+          <t>ACUA - RÍO S.A.</t>
         </is>
       </c>
       <c r="F501" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="G501" t="inlineStr">
         <is>
@@ -24404,12 +24404,12 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -1268,7 +1268,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/03/2023</t>
+          <t>23/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,11 +2455,11 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,11 +2503,11 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14455,11 +14455,11 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15515,7 +15515,7 @@
         </is>
       </c>
       <c r="F316" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15524,12 +15524,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15563,7 +15563,7 @@
         </is>
       </c>
       <c r="F317" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15572,12 +15572,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16039,11 +16039,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16087,11 +16087,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16100,12 +16100,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -17944,7 +17944,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17959,11 +17959,11 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F367" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -17972,12 +17972,12 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -17992,7 +17992,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -18007,11 +18007,11 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F368" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -18020,12 +18020,12 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -18040,7 +18040,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -18055,11 +18055,11 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F369" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -18068,12 +18068,12 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -18088,7 +18088,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -18103,11 +18103,11 @@
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F370" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G370" t="inlineStr">
         <is>
@@ -18116,12 +18116,12 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
@@ -18952,7 +18952,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -18962,16 +18962,16 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F388" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -18985,7 +18985,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -19015,11 +19015,11 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F389" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -19048,7 +19048,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -19063,11 +19063,11 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F390" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -19096,7 +19096,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -19106,16 +19106,16 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F391" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G391" t="inlineStr">
         <is>
@@ -19129,7 +19129,7 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -21400,7 +21400,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -21415,11 +21415,11 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F439" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G439" t="inlineStr">
         <is>
@@ -21428,12 +21428,12 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
@@ -21448,7 +21448,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -21463,11 +21463,11 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F440" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G440" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
@@ -21496,7 +21496,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -21511,11 +21511,11 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F441" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G441" t="inlineStr">
         <is>
@@ -21524,12 +21524,12 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
@@ -23512,7 +23512,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
+          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -23527,11 +23527,11 @@
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>FEDERICO CARLOS DORNER PARIS</t>
+          <t>Carmen Isolina Cortés Jara</t>
         </is>
       </c>
       <c r="F483" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G483" t="inlineStr">
         <is>
@@ -23545,7 +23545,7 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
@@ -23560,7 +23560,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
+          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -23579,7 +23579,7 @@
         </is>
       </c>
       <c r="F484" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G484" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
@@ -23608,7 +23608,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
+          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -23623,11 +23623,11 @@
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>Carmen Isolina Cortés Jara</t>
+          <t>FEDERICO CARLOS DORNER PARIS</t>
         </is>
       </c>
       <c r="F485" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G485" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Proyecto Consorcio General (e-seia)</t>
+          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24391,11 +24391,11 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
+          <t>ACUA - RÍO S.A.</t>
         </is>
       </c>
       <c r="F501" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="G501" t="inlineStr">
         <is>
@@ -24404,12 +24404,12 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,11 +2455,11 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,11 +2503,11 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14455,11 +14455,11 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15515,7 +15515,7 @@
         </is>
       </c>
       <c r="F316" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15524,12 +15524,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15563,7 +15563,7 @@
         </is>
       </c>
       <c r="F317" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15572,12 +15572,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16039,11 +16039,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16087,11 +16087,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16100,12 +16100,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -17944,7 +17944,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17959,11 +17959,11 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F367" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -17972,12 +17972,12 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -17992,7 +17992,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -18007,11 +18007,11 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F368" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -18020,12 +18020,12 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -18040,7 +18040,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -18055,11 +18055,11 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F369" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -18068,12 +18068,12 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -18088,7 +18088,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -18103,11 +18103,11 @@
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F370" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G370" t="inlineStr">
         <is>
@@ -18116,12 +18116,12 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
@@ -18952,7 +18952,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -18962,16 +18962,16 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F388" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -18985,7 +18985,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -19015,11 +19015,11 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F389" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -19048,7 +19048,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -19063,11 +19063,11 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F390" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -19096,7 +19096,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -19106,16 +19106,16 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F391" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G391" t="inlineStr">
         <is>
@@ -19129,7 +19129,7 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -21400,7 +21400,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -21415,11 +21415,11 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F439" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G439" t="inlineStr">
         <is>
@@ -21428,12 +21428,12 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
@@ -21448,7 +21448,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -21463,11 +21463,11 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F440" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G440" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
@@ -21496,7 +21496,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -21511,11 +21511,11 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F441" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G441" t="inlineStr">
         <is>
@@ -21524,12 +21524,12 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
@@ -23512,7 +23512,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
+          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -23527,11 +23527,11 @@
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>Carmen Isolina Cortés Jara</t>
+          <t>FEDERICO CARLOS DORNER PARIS</t>
         </is>
       </c>
       <c r="F483" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G483" t="inlineStr">
         <is>
@@ -23545,7 +23545,7 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
@@ -23560,7 +23560,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
+          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -23579,7 +23579,7 @@
         </is>
       </c>
       <c r="F484" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="G484" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
@@ -23608,7 +23608,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
+          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -23623,11 +23623,11 @@
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>FEDERICO CARLOS DORNER PARIS</t>
+          <t>Carmen Isolina Cortés Jara</t>
         </is>
       </c>
       <c r="F485" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G485" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
+          <t>Proyecto Consorcio General (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24391,11 +24391,11 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>ACUA - RÍO S.A.</t>
+          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
         </is>
       </c>
       <c r="F501" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="G501" t="inlineStr">
         <is>
@@ -24404,12 +24404,12 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,11 +2455,11 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,11 +2503,11 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14455,11 +14455,11 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15515,7 +15515,7 @@
         </is>
       </c>
       <c r="F316" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15524,12 +15524,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15563,7 +15563,7 @@
         </is>
       </c>
       <c r="F317" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15572,12 +15572,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16039,11 +16039,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16087,11 +16087,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16100,12 +16100,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -17944,7 +17944,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17959,11 +17959,11 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F367" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -17972,12 +17972,12 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -17992,7 +17992,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -18007,11 +18007,11 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F368" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -18020,12 +18020,12 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -18040,7 +18040,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -18055,11 +18055,11 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F369" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -18068,12 +18068,12 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -18088,7 +18088,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -18103,11 +18103,11 @@
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F370" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G370" t="inlineStr">
         <is>
@@ -18116,12 +18116,12 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
@@ -18952,7 +18952,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -18962,16 +18962,16 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F388" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -18985,7 +18985,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -19015,11 +19015,11 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F389" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -19048,7 +19048,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -19063,11 +19063,11 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F390" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -19096,7 +19096,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -19106,16 +19106,16 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F391" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G391" t="inlineStr">
         <is>
@@ -19129,7 +19129,7 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -21400,7 +21400,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -21415,11 +21415,11 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F439" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G439" t="inlineStr">
         <is>
@@ -21428,12 +21428,12 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
@@ -21448,7 +21448,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -21463,11 +21463,11 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F440" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G440" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
@@ -21496,7 +21496,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -21511,11 +21511,11 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F441" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G441" t="inlineStr">
         <is>
@@ -21524,12 +21524,12 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
@@ -23512,7 +23512,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
+          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -23527,11 +23527,11 @@
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>FEDERICO CARLOS DORNER PARIS</t>
+          <t>Carmen Isolina Cortés Jara</t>
         </is>
       </c>
       <c r="F483" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G483" t="inlineStr">
         <is>
@@ -23545,7 +23545,7 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
@@ -23560,7 +23560,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
+          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -23579,7 +23579,7 @@
         </is>
       </c>
       <c r="F484" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G484" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
@@ -23608,7 +23608,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
+          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -23623,11 +23623,11 @@
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>Carmen Isolina Cortés Jara</t>
+          <t>FEDERICO CARLOS DORNER PARIS</t>
         </is>
       </c>
       <c r="F485" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G485" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Proyecto Consorcio General (e-seia)</t>
+          <t>Definición de un sistema de tratamiento y disposición final de lodos (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24391,11 +24391,11 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>CONSERVAS Y CONGELADOS DE PUERTO MONTT S.A</t>
+          <t>ACUA - RÍO S.A.</t>
         </is>
       </c>
       <c r="F501" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="G501" t="inlineStr">
         <is>
@@ -24404,12 +24404,12 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31138&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -443,7 +443,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4000</v>
+        <v>40000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,11 +2503,11 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,11 +2551,11 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14455,11 +14455,11 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15563,7 +15563,7 @@
         </is>
       </c>
       <c r="F317" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15572,12 +15572,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15611,7 +15611,7 @@
         </is>
       </c>
       <c r="F318" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16087,11 +16087,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16100,12 +16100,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16135,11 +16135,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16148,12 +16148,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -17992,7 +17992,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -18007,11 +18007,11 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F368" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -18020,12 +18020,12 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -18040,7 +18040,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -18055,11 +18055,11 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F369" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -18068,12 +18068,12 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -18088,7 +18088,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -18103,11 +18103,11 @@
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F370" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G370" t="inlineStr">
         <is>
@@ -18116,12 +18116,12 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
@@ -18136,7 +18136,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18151,11 +18151,11 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F371" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -18164,12 +18164,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -19000,7 +19000,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -19010,16 +19010,16 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F389" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -19063,11 +19063,11 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F390" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -19096,7 +19096,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -19111,11 +19111,11 @@
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F391" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G391" t="inlineStr">
         <is>
@@ -19129,7 +19129,7 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -19144,7 +19144,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -19154,16 +19154,16 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F392" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G392" t="inlineStr">
         <is>
@@ -19177,7 +19177,7 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
@@ -21448,7 +21448,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -21463,11 +21463,11 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F440" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G440" t="inlineStr">
         <is>
@@ -21476,12 +21476,12 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
@@ -21496,7 +21496,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -21511,11 +21511,11 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F441" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G441" t="inlineStr">
         <is>
@@ -21529,7 +21529,7 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
@@ -21544,7 +21544,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -21559,11 +21559,11 @@
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F442" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G442" t="inlineStr">
         <is>
@@ -21572,12 +21572,12 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,11 +2503,11 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,11 +2551,11 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14455,11 +14455,11 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15563,7 +15563,7 @@
         </is>
       </c>
       <c r="F317" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15572,12 +15572,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15611,7 +15611,7 @@
         </is>
       </c>
       <c r="F318" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16087,11 +16087,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16100,12 +16100,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16135,11 +16135,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16148,12 +16148,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -17992,7 +17992,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -18007,11 +18007,11 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F368" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -18020,12 +18020,12 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -18040,7 +18040,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -18055,11 +18055,11 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F369" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -18068,12 +18068,12 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -18088,7 +18088,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -18103,11 +18103,11 @@
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F370" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G370" t="inlineStr">
         <is>
@@ -18116,12 +18116,12 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
@@ -18136,7 +18136,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18151,11 +18151,11 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F371" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -18164,12 +18164,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -19000,7 +19000,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -19010,16 +19010,16 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F389" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -19063,11 +19063,11 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F390" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -19096,7 +19096,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -19111,11 +19111,11 @@
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F391" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G391" t="inlineStr">
         <is>
@@ -19129,7 +19129,7 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -19144,7 +19144,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -19154,16 +19154,16 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F392" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G392" t="inlineStr">
         <is>
@@ -19177,7 +19177,7 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
@@ -21448,7 +21448,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -21463,11 +21463,11 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F440" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G440" t="inlineStr">
         <is>
@@ -21476,12 +21476,12 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
@@ -21496,7 +21496,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -21511,11 +21511,11 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F441" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G441" t="inlineStr">
         <is>
@@ -21529,7 +21529,7 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
@@ -21544,7 +21544,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -21559,11 +21559,11 @@
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F442" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G442" t="inlineStr">
         <is>
@@ -21572,12 +21572,12 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>06/04/2023</t>
+          <t>13/04/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,11 +2503,11 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,11 +2551,11 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14455,11 +14455,11 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15563,7 +15563,7 @@
         </is>
       </c>
       <c r="F317" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15572,12 +15572,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15611,7 +15611,7 @@
         </is>
       </c>
       <c r="F318" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16087,11 +16087,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16100,12 +16100,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16135,11 +16135,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16148,12 +16148,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -17992,7 +17992,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -18007,11 +18007,11 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F368" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -18020,12 +18020,12 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -18040,7 +18040,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -18055,11 +18055,11 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F369" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -18068,12 +18068,12 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -18088,7 +18088,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -18103,11 +18103,11 @@
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F370" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G370" t="inlineStr">
         <is>
@@ -18116,12 +18116,12 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
@@ -18136,7 +18136,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18151,11 +18151,11 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F371" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -18164,12 +18164,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -19000,7 +19000,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -19010,16 +19010,16 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F389" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -19063,11 +19063,11 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F390" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -19096,7 +19096,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -19111,11 +19111,11 @@
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F391" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G391" t="inlineStr">
         <is>
@@ -19129,7 +19129,7 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -19144,7 +19144,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -19154,16 +19154,16 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F392" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G392" t="inlineStr">
         <is>
@@ -19177,7 +19177,7 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
@@ -21448,7 +21448,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -21463,11 +21463,11 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F440" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G440" t="inlineStr">
         <is>
@@ -21476,12 +21476,12 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
@@ -21496,7 +21496,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -21511,11 +21511,11 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F441" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G441" t="inlineStr">
         <is>
@@ -21529,7 +21529,7 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
@@ -21544,7 +21544,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -21559,11 +21559,11 @@
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F442" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G442" t="inlineStr">
         <is>
@@ -21572,12 +21572,12 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,11 +2503,11 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,11 +2551,11 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14455,11 +14455,11 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15563,7 +15563,7 @@
         </is>
       </c>
       <c r="F317" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15572,12 +15572,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15611,7 +15611,7 @@
         </is>
       </c>
       <c r="F318" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16087,11 +16087,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16100,12 +16100,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16135,11 +16135,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16148,12 +16148,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -17992,7 +17992,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -18007,11 +18007,11 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F368" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -18020,12 +18020,12 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -18040,7 +18040,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -18055,11 +18055,11 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F369" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -18068,12 +18068,12 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -18088,7 +18088,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -18103,11 +18103,11 @@
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F370" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G370" t="inlineStr">
         <is>
@@ -18116,12 +18116,12 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
@@ -18136,7 +18136,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18151,11 +18151,11 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F371" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -18164,12 +18164,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -19000,7 +19000,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -19010,16 +19010,16 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F389" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -19063,11 +19063,11 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F390" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -19096,7 +19096,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -19111,11 +19111,11 @@
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F391" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G391" t="inlineStr">
         <is>
@@ -19129,7 +19129,7 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -19144,7 +19144,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -19154,16 +19154,16 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F392" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G392" t="inlineStr">
         <is>
@@ -19177,7 +19177,7 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
@@ -21448,7 +21448,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -21463,11 +21463,11 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F440" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G440" t="inlineStr">
         <is>
@@ -21476,12 +21476,12 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
@@ -21496,7 +21496,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -21511,11 +21511,11 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F441" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G441" t="inlineStr">
         <is>
@@ -21529,7 +21529,7 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
@@ -21544,7 +21544,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -21559,11 +21559,11 @@
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F442" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G442" t="inlineStr">
         <is>
@@ -21572,12 +21572,12 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">
@@ -23560,7 +23560,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
+          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -23575,11 +23575,11 @@
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>FEDERICO CARLOS DORNER PARIS</t>
+          <t>Carmen Isolina Cortés Jara</t>
         </is>
       </c>
       <c r="F484" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G484" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
@@ -23608,7 +23608,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
+          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -23627,7 +23627,7 @@
         </is>
       </c>
       <c r="F485" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G485" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
@@ -23656,7 +23656,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
+          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -23671,11 +23671,11 @@
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>Carmen Isolina Cortés Jara</t>
+          <t>FEDERICO CARLOS DORNER PARIS</t>
         </is>
       </c>
       <c r="F486" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G486" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,11 +2503,11 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,11 +2551,11 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14455,11 +14455,11 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15563,7 +15563,7 @@
         </is>
       </c>
       <c r="F317" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15572,12 +15572,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15611,7 +15611,7 @@
         </is>
       </c>
       <c r="F318" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16087,11 +16087,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16100,12 +16100,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16135,11 +16135,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16148,12 +16148,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -17992,7 +17992,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -18007,11 +18007,11 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F368" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -18020,12 +18020,12 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -18040,7 +18040,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -18055,11 +18055,11 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F369" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -18068,12 +18068,12 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -18088,7 +18088,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -18103,11 +18103,11 @@
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F370" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G370" t="inlineStr">
         <is>
@@ -18116,12 +18116,12 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
@@ -18136,7 +18136,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18151,11 +18151,11 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F371" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -18164,12 +18164,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -19000,7 +19000,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -19010,16 +19010,16 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F389" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -19063,11 +19063,11 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F390" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -19096,7 +19096,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -19111,11 +19111,11 @@
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F391" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G391" t="inlineStr">
         <is>
@@ -19129,7 +19129,7 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -19144,7 +19144,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -19154,16 +19154,16 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F392" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G392" t="inlineStr">
         <is>
@@ -19177,7 +19177,7 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
@@ -21448,7 +21448,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -21463,11 +21463,11 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F440" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G440" t="inlineStr">
         <is>
@@ -21476,12 +21476,12 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
@@ -21496,7 +21496,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -21511,11 +21511,11 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F441" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G441" t="inlineStr">
         <is>
@@ -21529,7 +21529,7 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
@@ -21544,7 +21544,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -21559,11 +21559,11 @@
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F442" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G442" t="inlineStr">
         <is>
@@ -21572,12 +21572,12 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">
@@ -23560,7 +23560,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
+          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -23575,11 +23575,11 @@
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>Carmen Isolina Cortés Jara</t>
+          <t>FEDERICO CARLOS DORNER PARIS</t>
         </is>
       </c>
       <c r="F484" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G484" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
@@ -23608,7 +23608,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
+          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -23627,7 +23627,7 @@
         </is>
       </c>
       <c r="F485" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="G485" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
@@ -23656,7 +23656,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
+          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -23671,11 +23671,11 @@
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>FEDERICO CARLOS DORNER PARIS</t>
+          <t>Carmen Isolina Cortés Jara</t>
         </is>
       </c>
       <c r="F486" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G486" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -3655,7 +3655,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -14887,7 +14887,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F303" t="n">
@@ -18343,7 +18343,7 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F375" t="n">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,11 +2551,11 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,11 +2599,11 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,16 +9026,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15611,7 +15611,7 @@
         </is>
       </c>
       <c r="F318" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15659,7 +15659,7 @@
         </is>
       </c>
       <c r="F319" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15668,12 +15668,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16135,11 +16135,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16148,12 +16148,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16183,11 +16183,11 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16196,12 +16196,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -18040,7 +18040,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -18055,11 +18055,11 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F369" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -18068,12 +18068,12 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -18088,7 +18088,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -18103,11 +18103,11 @@
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F370" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G370" t="inlineStr">
         <is>
@@ -18116,12 +18116,12 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
@@ -18136,7 +18136,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18151,11 +18151,11 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F371" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -18164,12 +18164,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -18184,7 +18184,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18199,11 +18199,11 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F372" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -18212,12 +18212,12 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -19048,7 +19048,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -19058,16 +19058,16 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F390" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -19111,11 +19111,11 @@
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F391" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G391" t="inlineStr">
         <is>
@@ -19129,7 +19129,7 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -19144,7 +19144,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -19159,11 +19159,11 @@
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F392" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G392" t="inlineStr">
         <is>
@@ -19177,7 +19177,7 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
@@ -19192,7 +19192,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -19202,16 +19202,16 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F393" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -21496,7 +21496,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -21511,11 +21511,11 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F441" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G441" t="inlineStr">
         <is>
@@ -21524,12 +21524,12 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
@@ -21544,7 +21544,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -21559,11 +21559,11 @@
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F442" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G442" t="inlineStr">
         <is>
@@ -21577,7 +21577,7 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">
@@ -21592,7 +21592,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -21607,11 +21607,11 @@
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F443" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G443" t="inlineStr">
         <is>
@@ -21620,12 +21620,12 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
@@ -23608,7 +23608,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
+          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -23623,11 +23623,11 @@
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>FEDERICO CARLOS DORNER PARIS</t>
+          <t>Carmen Isolina Cortés Jara</t>
         </is>
       </c>
       <c r="F485" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G485" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
@@ -23656,7 +23656,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
+          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -23675,7 +23675,7 @@
         </is>
       </c>
       <c r="F486" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G486" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">
@@ -23704,7 +23704,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
+          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -23719,11 +23719,11 @@
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>Carmen Isolina Cortés Jara</t>
+          <t>FEDERICO CARLOS DORNER PARIS</t>
         </is>
       </c>
       <c r="F487" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G487" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J487" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,11 +2551,11 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,11 +2599,11 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,16 +9026,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15611,7 +15611,7 @@
         </is>
       </c>
       <c r="F318" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15659,7 +15659,7 @@
         </is>
       </c>
       <c r="F319" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15668,12 +15668,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16135,11 +16135,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16148,12 +16148,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16183,11 +16183,11 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16196,12 +16196,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -18040,7 +18040,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -18055,11 +18055,11 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F369" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -18068,12 +18068,12 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -18088,7 +18088,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -18103,11 +18103,11 @@
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F370" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G370" t="inlineStr">
         <is>
@@ -18116,12 +18116,12 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
@@ -18136,7 +18136,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18151,11 +18151,11 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F371" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -18164,12 +18164,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -18184,7 +18184,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18199,11 +18199,11 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F372" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -18212,12 +18212,12 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -19048,7 +19048,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -19058,16 +19058,16 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F390" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -19111,11 +19111,11 @@
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F391" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G391" t="inlineStr">
         <is>
@@ -19129,7 +19129,7 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -19144,7 +19144,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -19159,11 +19159,11 @@
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F392" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G392" t="inlineStr">
         <is>
@@ -19177,7 +19177,7 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
@@ -19192,7 +19192,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -19202,16 +19202,16 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F393" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -21496,7 +21496,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -21511,11 +21511,11 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F441" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G441" t="inlineStr">
         <is>
@@ -21524,12 +21524,12 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
@@ -21544,7 +21544,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -21559,11 +21559,11 @@
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F442" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G442" t="inlineStr">
         <is>
@@ -21577,7 +21577,7 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">
@@ -21592,7 +21592,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -21607,11 +21607,11 @@
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F443" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G443" t="inlineStr">
         <is>
@@ -21620,12 +21620,12 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
@@ -23608,7 +23608,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
+          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -23623,11 +23623,11 @@
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>Carmen Isolina Cortés Jara</t>
+          <t>FEDERICO CARLOS DORNER PARIS</t>
         </is>
       </c>
       <c r="F485" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G485" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
@@ -23656,7 +23656,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
+          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -23675,7 +23675,7 @@
         </is>
       </c>
       <c r="F486" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="G486" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">
@@ -23704,7 +23704,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
+          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -23719,11 +23719,11 @@
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>FEDERICO CARLOS DORNER PARIS</t>
+          <t>Carmen Isolina Cortés Jara</t>
         </is>
       </c>
       <c r="F487" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G487" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J487" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>04/08/2023</t>
+          <t>11/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -23608,7 +23608,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
+          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -23623,11 +23623,11 @@
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>Carmen Isolina Cortés Jara</t>
+          <t>FEDERICO CARLOS DORNER PARIS</t>
         </is>
       </c>
       <c r="F485" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G485" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
@@ -23656,7 +23656,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
+          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -23675,7 +23675,7 @@
         </is>
       </c>
       <c r="F486" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="G486" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">
@@ -23704,7 +23704,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
+          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -23719,11 +23719,11 @@
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>FEDERICO CARLOS DORNER PARIS</t>
+          <t>Carmen Isolina Cortés Jara</t>
         </is>
       </c>
       <c r="F487" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G487" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J487" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,11 +2551,11 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,11 +2599,11 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,16 +9026,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15611,7 +15611,7 @@
         </is>
       </c>
       <c r="F318" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15659,7 +15659,7 @@
         </is>
       </c>
       <c r="F319" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15668,12 +15668,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16135,11 +16135,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16148,12 +16148,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16183,11 +16183,11 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16196,12 +16196,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -18040,7 +18040,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -18055,11 +18055,11 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F369" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -18068,12 +18068,12 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -18088,7 +18088,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -18103,11 +18103,11 @@
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F370" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G370" t="inlineStr">
         <is>
@@ -18116,12 +18116,12 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
@@ -18136,7 +18136,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18151,11 +18151,11 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F371" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -18164,12 +18164,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -18184,7 +18184,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18199,11 +18199,11 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F372" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -18212,12 +18212,12 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -19048,7 +19048,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -19058,16 +19058,16 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F390" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -19111,11 +19111,11 @@
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F391" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G391" t="inlineStr">
         <is>
@@ -19129,7 +19129,7 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -19144,7 +19144,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -19159,11 +19159,11 @@
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F392" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G392" t="inlineStr">
         <is>
@@ -19177,7 +19177,7 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
@@ -19192,7 +19192,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -19202,16 +19202,16 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F393" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -21496,7 +21496,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -21511,11 +21511,11 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F441" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G441" t="inlineStr">
         <is>
@@ -21524,12 +21524,12 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
@@ -21544,7 +21544,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -21559,11 +21559,11 @@
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F442" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G442" t="inlineStr">
         <is>
@@ -21577,7 +21577,7 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">
@@ -21592,7 +21592,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -21607,11 +21607,11 @@
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F443" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G443" t="inlineStr">
         <is>
@@ -21620,12 +21620,12 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,11 +2551,11 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,11 +2599,11 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,16 +9026,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15611,7 +15611,7 @@
         </is>
       </c>
       <c r="F318" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15659,7 +15659,7 @@
         </is>
       </c>
       <c r="F319" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15668,12 +15668,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16135,11 +16135,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16148,12 +16148,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16183,11 +16183,11 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16196,12 +16196,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -18040,7 +18040,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -18055,11 +18055,11 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F369" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -18068,12 +18068,12 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -18088,7 +18088,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -18103,11 +18103,11 @@
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F370" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G370" t="inlineStr">
         <is>
@@ -18116,12 +18116,12 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
@@ -18136,7 +18136,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18151,11 +18151,11 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F371" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -18164,12 +18164,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -18184,7 +18184,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18199,11 +18199,11 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F372" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -18212,12 +18212,12 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -19048,7 +19048,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -19058,16 +19058,16 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F390" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -19111,11 +19111,11 @@
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F391" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G391" t="inlineStr">
         <is>
@@ -19129,7 +19129,7 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -19144,7 +19144,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -19159,11 +19159,11 @@
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F392" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G392" t="inlineStr">
         <is>
@@ -19177,7 +19177,7 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
@@ -19192,7 +19192,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -19202,16 +19202,16 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F393" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -21496,7 +21496,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -21511,11 +21511,11 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F441" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G441" t="inlineStr">
         <is>
@@ -21524,12 +21524,12 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
@@ -21544,7 +21544,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -21559,11 +21559,11 @@
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F442" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G442" t="inlineStr">
         <is>
@@ -21577,7 +21577,7 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">
@@ -21592,7 +21592,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -21607,11 +21607,11 @@
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F443" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G443" t="inlineStr">
         <is>
@@ -21620,12 +21620,12 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,11 +2599,11 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,11 +2647,11 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,16 +9026,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15659,7 +15659,7 @@
         </is>
       </c>
       <c r="F319" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15668,12 +15668,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15707,7 +15707,7 @@
         </is>
       </c>
       <c r="F320" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16183,11 +16183,11 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16196,12 +16196,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16231,11 +16231,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16244,12 +16244,12 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -18088,7 +18088,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -18103,11 +18103,11 @@
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F370" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G370" t="inlineStr">
         <is>
@@ -18116,12 +18116,12 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
@@ -18136,7 +18136,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18151,11 +18151,11 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F371" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -18164,12 +18164,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -18184,7 +18184,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18199,11 +18199,11 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F372" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -18212,12 +18212,12 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -18232,7 +18232,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -18247,11 +18247,11 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F373" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
@@ -18260,12 +18260,12 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -19096,7 +19096,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -19106,16 +19106,16 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F391" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G391" t="inlineStr">
         <is>
@@ -19129,7 +19129,7 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -19159,11 +19159,11 @@
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F392" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G392" t="inlineStr">
         <is>
@@ -19177,7 +19177,7 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
@@ -19192,7 +19192,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -19207,11 +19207,11 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F393" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -19240,7 +19240,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -19250,16 +19250,16 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F394" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -21544,7 +21544,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -21559,11 +21559,11 @@
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F442" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G442" t="inlineStr">
         <is>
@@ -21572,12 +21572,12 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">
@@ -21592,7 +21592,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -21607,11 +21607,11 @@
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F443" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G443" t="inlineStr">
         <is>
@@ -21625,7 +21625,7 @@
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
@@ -21640,7 +21640,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -21655,11 +21655,11 @@
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F444" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G444" t="inlineStr">
         <is>
@@ -21668,12 +21668,12 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
@@ -23656,7 +23656,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
+          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -23671,11 +23671,11 @@
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>FEDERICO CARLOS DORNER PARIS</t>
+          <t>Carmen Isolina Cortés Jara</t>
         </is>
       </c>
       <c r="F486" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G486" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">
@@ -23704,7 +23704,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
+          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -23723,7 +23723,7 @@
         </is>
       </c>
       <c r="F487" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G487" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J487" t="inlineStr">
@@ -23752,7 +23752,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
+          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -23767,11 +23767,11 @@
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>Carmen Isolina Cortés Jara</t>
+          <t>FEDERICO CARLOS DORNER PARIS</t>
         </is>
       </c>
       <c r="F488" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G488" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J488" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,11 +2599,11 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,11 +2647,11 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,16 +9026,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15659,7 +15659,7 @@
         </is>
       </c>
       <c r="F319" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15668,12 +15668,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15707,7 +15707,7 @@
         </is>
       </c>
       <c r="F320" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16183,11 +16183,11 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16196,12 +16196,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16231,11 +16231,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16244,12 +16244,12 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -18088,7 +18088,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -18103,11 +18103,11 @@
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F370" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G370" t="inlineStr">
         <is>
@@ -18116,12 +18116,12 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
@@ -18136,7 +18136,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18151,11 +18151,11 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F371" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -18164,12 +18164,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -18184,7 +18184,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18199,11 +18199,11 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F372" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -18212,12 +18212,12 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -18232,7 +18232,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -18247,11 +18247,11 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F373" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
@@ -18260,12 +18260,12 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -19096,7 +19096,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -19106,16 +19106,16 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F391" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G391" t="inlineStr">
         <is>
@@ -19129,7 +19129,7 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -19159,11 +19159,11 @@
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F392" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G392" t="inlineStr">
         <is>
@@ -19177,7 +19177,7 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
@@ -19192,7 +19192,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -19207,11 +19207,11 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F393" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -19240,7 +19240,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -19250,16 +19250,16 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F394" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -21544,7 +21544,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -21559,11 +21559,11 @@
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F442" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G442" t="inlineStr">
         <is>
@@ -21572,12 +21572,12 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">
@@ -21592,7 +21592,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -21607,11 +21607,11 @@
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F443" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G443" t="inlineStr">
         <is>
@@ -21625,7 +21625,7 @@
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
@@ -21640,7 +21640,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -21655,11 +21655,11 @@
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F444" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G444" t="inlineStr">
         <is>
@@ -21668,12 +21668,12 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
@@ -23656,7 +23656,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
+          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -23671,11 +23671,11 @@
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>Carmen Isolina Cortés Jara</t>
+          <t>FEDERICO CARLOS DORNER PARIS</t>
         </is>
       </c>
       <c r="F486" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G486" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">
@@ -23704,7 +23704,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
+          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -23723,7 +23723,7 @@
         </is>
       </c>
       <c r="F487" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="G487" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J487" t="inlineStr">
@@ -23752,7 +23752,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
+          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -23767,11 +23767,11 @@
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>FEDERICO CARLOS DORNER PARIS</t>
+          <t>Carmen Isolina Cortés Jara</t>
         </is>
       </c>
       <c r="F488" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G488" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J488" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/08/2023</t>
+          <t>21/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -2167,7 +2167,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -11383,7 +11383,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>WALLMAERT CHILE ALIMENTOS Y SERVICIOS LTDA.</t>
+          <t>Pesquera Ocean Mart S.p.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
@@ -13783,7 +13783,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>WALLMAERT CHILE ALIMENTOS Y SERVICIOS LTDA.</t>
+          <t>Pesquera Ocean Mart S.p.A.</t>
         </is>
       </c>
       <c r="F280" t="n">
@@ -17671,7 +17671,7 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>LESLIE EDITH STEVENSON CASTRO</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F361" t="n">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -3751,7 +3751,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -14983,7 +14983,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F305" t="n">
@@ -18439,7 +18439,7 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F377" t="n">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -19447,7 +19447,7 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F398" t="n">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,11 +2647,11 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6164,12 +6164,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15707,7 +15707,7 @@
         </is>
       </c>
       <c r="F320" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15755,7 +15755,7 @@
         </is>
       </c>
       <c r="F321" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16231,11 +16231,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16244,12 +16244,12 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -18136,7 +18136,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18151,11 +18151,11 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F371" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -18164,12 +18164,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -18184,7 +18184,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18199,11 +18199,11 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F372" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -18212,12 +18212,12 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -18232,7 +18232,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -18247,11 +18247,11 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F373" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
@@ -18260,12 +18260,12 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -18280,7 +18280,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18295,11 +18295,11 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F374" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
@@ -18308,12 +18308,12 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -19144,7 +19144,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -19154,16 +19154,16 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F392" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G392" t="inlineStr">
         <is>
@@ -19177,7 +19177,7 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
@@ -19207,11 +19207,11 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F393" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -19240,7 +19240,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -19255,11 +19255,11 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F394" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -19288,7 +19288,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -19298,16 +19298,16 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F395" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G395" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -21592,7 +21592,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -21607,11 +21607,11 @@
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F443" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G443" t="inlineStr">
         <is>
@@ -21620,12 +21620,12 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
@@ -21640,7 +21640,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -21655,11 +21655,11 @@
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F444" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G444" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
@@ -21688,7 +21688,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -21703,11 +21703,11 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F445" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G445" t="inlineStr">
         <is>
@@ -21716,12 +21716,12 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,11 +2647,11 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6164,12 +6164,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15707,7 +15707,7 @@
         </is>
       </c>
       <c r="F320" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15755,7 +15755,7 @@
         </is>
       </c>
       <c r="F321" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16231,11 +16231,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16244,12 +16244,12 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -18136,7 +18136,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18151,11 +18151,11 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F371" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -18164,12 +18164,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -18184,7 +18184,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18199,11 +18199,11 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F372" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -18212,12 +18212,12 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -18232,7 +18232,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -18247,11 +18247,11 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F373" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
@@ -18260,12 +18260,12 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -18280,7 +18280,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18295,11 +18295,11 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F374" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
@@ -18308,12 +18308,12 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -19144,7 +19144,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -19154,16 +19154,16 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F392" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G392" t="inlineStr">
         <is>
@@ -19177,7 +19177,7 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
@@ -19207,11 +19207,11 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F393" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -19240,7 +19240,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -19255,11 +19255,11 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F394" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -19288,7 +19288,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -19298,16 +19298,16 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F395" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G395" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -21592,7 +21592,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -21607,11 +21607,11 @@
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F443" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G443" t="inlineStr">
         <is>
@@ -21620,12 +21620,12 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
@@ -21640,7 +21640,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -21655,11 +21655,11 @@
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F444" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G444" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
@@ -21688,7 +21688,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -21703,11 +21703,11 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F445" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G445" t="inlineStr">
         <is>
@@ -21716,12 +21716,12 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/10/2023</t>
+          <t>02/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,11 +2647,11 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6164,12 +6164,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15707,7 +15707,7 @@
         </is>
       </c>
       <c r="F320" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15755,7 +15755,7 @@
         </is>
       </c>
       <c r="F321" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16231,11 +16231,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16244,12 +16244,12 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -18136,7 +18136,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18151,11 +18151,11 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F371" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -18164,12 +18164,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -18184,7 +18184,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18199,11 +18199,11 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F372" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -18212,12 +18212,12 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -18232,7 +18232,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -18247,11 +18247,11 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F373" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
@@ -18260,12 +18260,12 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -18280,7 +18280,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18295,11 +18295,11 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F374" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
@@ -18308,12 +18308,12 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -19144,7 +19144,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -19154,16 +19154,16 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F392" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G392" t="inlineStr">
         <is>
@@ -19177,7 +19177,7 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
@@ -19207,11 +19207,11 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F393" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -19240,7 +19240,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -19255,11 +19255,11 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F394" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -19288,7 +19288,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -19298,16 +19298,16 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F395" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G395" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -21592,7 +21592,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -21607,11 +21607,11 @@
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F443" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G443" t="inlineStr">
         <is>
@@ -21620,12 +21620,12 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
@@ -21640,7 +21640,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -21655,11 +21655,11 @@
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F444" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G444" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
@@ -21688,7 +21688,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -21703,11 +21703,11 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F445" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G445" t="inlineStr">
         <is>
@@ -21716,12 +21716,12 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,11 +2647,11 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6164,12 +6164,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15707,7 +15707,7 @@
         </is>
       </c>
       <c r="F320" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15755,7 +15755,7 @@
         </is>
       </c>
       <c r="F321" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16231,11 +16231,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16244,12 +16244,12 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -18136,7 +18136,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18151,11 +18151,11 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F371" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -18164,12 +18164,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -18184,7 +18184,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18199,11 +18199,11 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F372" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -18212,12 +18212,12 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -18232,7 +18232,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -18247,11 +18247,11 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F373" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
@@ -18260,12 +18260,12 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -18280,7 +18280,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18295,11 +18295,11 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F374" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
@@ -18308,12 +18308,12 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -19144,7 +19144,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -19154,16 +19154,16 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F392" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G392" t="inlineStr">
         <is>
@@ -19177,7 +19177,7 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
@@ -19207,11 +19207,11 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F393" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -19240,7 +19240,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -19255,11 +19255,11 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F394" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -19288,7 +19288,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -19298,16 +19298,16 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F395" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G395" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -21592,7 +21592,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -21607,11 +21607,11 @@
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F443" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G443" t="inlineStr">
         <is>
@@ -21620,12 +21620,12 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
@@ -21640,7 +21640,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -21655,11 +21655,11 @@
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F444" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G444" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
@@ -21688,7 +21688,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -21703,11 +21703,11 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F445" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G445" t="inlineStr">
         <is>
@@ -21716,12 +21716,12 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
@@ -23704,7 +23704,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
+          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -23719,11 +23719,11 @@
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>FEDERICO CARLOS DORNER PARIS</t>
+          <t>Carmen Isolina Cortés Jara</t>
         </is>
       </c>
       <c r="F487" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G487" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J487" t="inlineStr">
@@ -23752,7 +23752,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
+          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="F488" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G488" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J488" t="inlineStr">
@@ -23800,7 +23800,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
+          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -23815,11 +23815,11 @@
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>Carmen Isolina Cortés Jara</t>
+          <t>FEDERICO CARLOS DORNER PARIS</t>
         </is>
       </c>
       <c r="F489" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G489" t="inlineStr">
         <is>
@@ -23833,7 +23833,7 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,11 +2647,11 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6164,12 +6164,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15707,7 +15707,7 @@
         </is>
       </c>
       <c r="F320" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15755,7 +15755,7 @@
         </is>
       </c>
       <c r="F321" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16231,11 +16231,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16244,12 +16244,12 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -18136,7 +18136,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18151,11 +18151,11 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F371" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -18164,12 +18164,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -18184,7 +18184,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18199,11 +18199,11 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F372" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -18212,12 +18212,12 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -18232,7 +18232,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -18247,11 +18247,11 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F373" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
@@ -18260,12 +18260,12 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -18280,7 +18280,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18295,11 +18295,11 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F374" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
@@ -18308,12 +18308,12 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -19144,7 +19144,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -19154,16 +19154,16 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F392" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G392" t="inlineStr">
         <is>
@@ -19177,7 +19177,7 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
@@ -19207,11 +19207,11 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F393" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -19240,7 +19240,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -19255,11 +19255,11 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F394" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -19288,7 +19288,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -19298,16 +19298,16 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F395" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G395" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -21592,7 +21592,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -21607,11 +21607,11 @@
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F443" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G443" t="inlineStr">
         <is>
@@ -21620,12 +21620,12 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
@@ -21640,7 +21640,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -21655,11 +21655,11 @@
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F444" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G444" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
@@ -21688,7 +21688,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -21703,11 +21703,11 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F445" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G445" t="inlineStr">
         <is>
@@ -21716,12 +21716,12 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
@@ -23704,7 +23704,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
+          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -23719,11 +23719,11 @@
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>Carmen Isolina Cortés Jara</t>
+          <t>FEDERICO CARLOS DORNER PARIS</t>
         </is>
       </c>
       <c r="F487" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G487" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J487" t="inlineStr">
@@ -23752,7 +23752,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
+          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="F488" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="G488" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J488" t="inlineStr">
@@ -23800,7 +23800,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
+          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -23815,11 +23815,11 @@
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>FEDERICO CARLOS DORNER PARIS</t>
+          <t>Carmen Isolina Cortés Jara</t>
         </is>
       </c>
       <c r="F489" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G489" t="inlineStr">
         <is>
@@ -23833,7 +23833,7 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,11 +2647,11 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6164,12 +6164,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15707,7 +15707,7 @@
         </is>
       </c>
       <c r="F320" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15755,7 +15755,7 @@
         </is>
       </c>
       <c r="F321" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16231,11 +16231,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16244,12 +16244,12 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -18136,7 +18136,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18151,11 +18151,11 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F371" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -18164,12 +18164,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -18184,7 +18184,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18199,11 +18199,11 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F372" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -18212,12 +18212,12 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -18232,7 +18232,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -18247,11 +18247,11 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F373" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
@@ -18260,12 +18260,12 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -18280,7 +18280,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18295,11 +18295,11 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F374" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
@@ -18308,12 +18308,12 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -19144,7 +19144,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -19154,16 +19154,16 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F392" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G392" t="inlineStr">
         <is>
@@ -19177,7 +19177,7 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
@@ -19207,11 +19207,11 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F393" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -19240,7 +19240,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -19255,11 +19255,11 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F394" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -19288,7 +19288,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -19298,16 +19298,16 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F395" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G395" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -21592,7 +21592,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -21607,11 +21607,11 @@
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F443" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G443" t="inlineStr">
         <is>
@@ -21620,12 +21620,12 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
@@ -21640,7 +21640,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -21655,11 +21655,11 @@
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F444" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G444" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
@@ -21688,7 +21688,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -21703,11 +21703,11 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F445" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G445" t="inlineStr">
         <is>
@@ -21716,12 +21716,12 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
@@ -23704,7 +23704,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
+          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -23719,11 +23719,11 @@
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>FEDERICO CARLOS DORNER PARIS</t>
+          <t>Carmen Isolina Cortés Jara</t>
         </is>
       </c>
       <c r="F487" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G487" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J487" t="inlineStr">
@@ -23752,7 +23752,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en Bahía Ilque ( N° Solicitud 200101090) (e-seia)</t>
+          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="F488" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G488" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J488" t="inlineStr">
@@ -23800,7 +23800,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito en Bahía Ilque (N° Sol.200101080) (e-seia)</t>
+          <t>CENTRO DE CULTIVOS DE MOLUSCOS ENSENADA CODIHUÉ, COMUNA DE CALBUCO, X REGIÓN - SOLICITUD Nº 201104019 (e-seia)</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -23815,11 +23815,11 @@
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>Carmen Isolina Cortés Jara</t>
+          <t>FEDERICO CARLOS DORNER PARIS</t>
         </is>
       </c>
       <c r="F489" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G489" t="inlineStr">
         <is>
@@ -23833,7 +23833,7 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=127534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=125311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,11 +2743,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6164,12 +6164,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15755,7 +15755,7 @@
         </is>
       </c>
       <c r="F321" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15803,7 +15803,7 @@
         </is>
       </c>
       <c r="F322" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15812,12 +15812,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,11 +16327,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -18184,7 +18184,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18199,11 +18199,11 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F372" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -18212,12 +18212,12 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -18232,7 +18232,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -18247,11 +18247,11 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F373" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
@@ -18260,12 +18260,12 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -18280,7 +18280,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18295,11 +18295,11 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F374" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
@@ -18308,12 +18308,12 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -18328,7 +18328,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18343,11 +18343,11 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F375" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -18356,12 +18356,12 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -19192,7 +19192,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -19202,16 +19202,16 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F393" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -19255,11 +19255,11 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F394" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -19288,7 +19288,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -19303,11 +19303,11 @@
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F395" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G395" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -19336,7 +19336,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -19346,16 +19346,16 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F396" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G396" t="inlineStr">
         <is>
@@ -19369,7 +19369,7 @@
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
@@ -21640,7 +21640,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -21655,11 +21655,11 @@
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F444" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G444" t="inlineStr">
         <is>
@@ -21668,12 +21668,12 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
@@ -21688,7 +21688,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -21703,11 +21703,11 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F445" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G445" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
@@ -21736,7 +21736,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -21751,11 +21751,11 @@
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F446" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G446" t="inlineStr">
         <is>
@@ -21764,12 +21764,12 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,11 +2743,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6164,12 +6164,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15755,7 +15755,7 @@
         </is>
       </c>
       <c r="F321" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15803,7 +15803,7 @@
         </is>
       </c>
       <c r="F322" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15812,12 +15812,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,11 +16327,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -18184,7 +18184,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18199,11 +18199,11 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F372" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -18212,12 +18212,12 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -18232,7 +18232,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -18247,11 +18247,11 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F373" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
@@ -18260,12 +18260,12 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -18280,7 +18280,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18295,11 +18295,11 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F374" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
@@ -18308,12 +18308,12 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -18328,7 +18328,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18343,11 +18343,11 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F375" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -18356,12 +18356,12 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -19192,7 +19192,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -19202,16 +19202,16 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F393" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -19255,11 +19255,11 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F394" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -19288,7 +19288,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -19303,11 +19303,11 @@
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F395" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G395" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -19336,7 +19336,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -19346,16 +19346,16 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F396" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G396" t="inlineStr">
         <is>
@@ -19369,7 +19369,7 @@
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
@@ -21640,7 +21640,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -21655,11 +21655,11 @@
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F444" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G444" t="inlineStr">
         <is>
@@ -21668,12 +21668,12 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
@@ -21688,7 +21688,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -21703,11 +21703,11 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F445" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G445" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
@@ -21736,7 +21736,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -21751,11 +21751,11 @@
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F446" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G446" t="inlineStr">
         <is>
@@ -21764,12 +21764,12 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">

--- a/data/Puerto Montt.xlsx
+++ b/data/Puerto Montt.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>20/12/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
+          <t>Central Corcovado</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
+          <t>Generadora Corcovado SpA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Central Corcovado</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES PUERTO MONTT</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,11 +2743,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Generadora Corcovado SpA</t>
+          <t>TRATAMIENTOS DEL PACIFICO S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132793356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133514851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
+          <t>Planta de Carbonato de Calcio CALAGRO</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Catalonia Seafoods SA</t>
+          <t>Inversiones Las Garzas S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6164,12 +6164,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Planta de Carbonato de Calcio CALAGRO</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS CATALONIA SEAFOODS SA SIST. TRAT.RILES CATALONIA SEAFOODS S.A.</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Inversiones Las Garzas S.A.</t>
+          <t>Catalonia Seafoods SA</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7226669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7224994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión de 110/66 kV, Ensenada-Melipulli</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>HIDROELÉCTRICA ENSENADA S. A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4532486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
+          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Aquacultivos S.A.</t>
+          <t>Luis Hernán Bustamante Moure</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>2500</v>
+        <v>12</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Sistema de Compostaje y Lombricultura (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental de Piscicultura Hornohuinco (e-seia)</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Luis Hernán Bustamante Moure</t>
+          <t>Aquacultivos S.A.</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>12</v>
+        <v>2500</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2286098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2301918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
+          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15755,7 +15755,7 @@
         </is>
       </c>
       <c r="F321" t="n">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Modificacion Declaración de Impacto Ambiental Proyecto Ecopiscicultura Rio Blanco (2P) (e-seia)</t>
+          <t>Modificacion y ampliación planta de proceso Cultivadora de Salmones Linao Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15803,7 +15803,7 @@
         </is>
       </c>
       <c r="F322" t="n">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15812,12 +15812,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1926144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1925126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
+          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Palco Chile Limitada</t>
+          <t>Los Glaciares S.A.</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN INSTALACIONES PLANTA DE HARINAS Y ACEITES DE SALMÓN, PANITAO (e-seia)</t>
+          <t>Instalación de Emisario Submarino para la Disposición de RILes. Piedra Azul, Comuna de Puerto Montt. Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,11 +16327,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Los Glaciares S.A.</t>
+          <t>Palco Chile Limitada</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>15000</v>
+        <v>35</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1862776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -18184,7 +18184,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
+          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18199,11 +18199,11 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Alize Chile Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F372" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -18212,12 +18212,12 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -18232,7 +18232,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Instalación Centro de Engorda de Especies Salmonídeas, Isla Tenglo ( Código Centro 102670) (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Alize Chile Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -18247,11 +18247,11 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad de Inversiones Alize Chile Limitada</t>
         </is>
       </c>
       <c r="F373" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
@@ -18260,12 +18260,12 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1276474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -18280,7 +18280,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18295,11 +18295,11 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F374" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
@@ -18308,12 +18308,12 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -18328,7 +18328,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos, Sector Punta Quillaipe, Seno de Reloncavi, Comuna de Puerto Montt, X Región (e-seia)</t>
+          <t>Rehabilitación de Terreno exPlanta ESSO Puerto Montt para usos futuros (e-seia)</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18343,11 +18343,11 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F375" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -18356,12 +18356,12 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1255250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -19192,7 +19192,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -19202,16 +19202,16 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F393" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -19255,11 +19255,11 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F394" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -19288,7 +19288,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -19303,11 +19303,11 @@
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F395" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G395" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -19336,7 +19336,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Ampliación Estación de Cosecha Bahía Chincui (e-seia)</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -19346,16 +19346,16 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F396" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G396" t="inlineStr">
         <is>
@@ -19369,7 +19369,7 @@
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1011875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
@@ -21640,7 +21640,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -21655,11 +21655,11 @@
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>Sociedad Gajardo Limitada</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F444" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G444" t="inlineStr">
         <is>
@@ -21668,12 +21668,12 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
@@ -21688,7 +21688,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
+          <t>Crntro de Producción de Moluscos Punta Quillaipe (Pert 202101005) (e-seia)</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -21703,11 +21703,11 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>Nautilus Seafood Limitada</t>
+          <t>Sociedad Gajardo Limitada</t>
         </is>
       </c>
       <c r="F445" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G445" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
@@ -21736,7 +21736,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos, Ostreídos y Pectínidos Bahía Ilque - Concesión I, Puerto Montt, X región, Nautilus Seafood Limitada (Nº Pert 202101028) (e-seia)</t>
+          <t>Cultivos de Mitílidos, Ostreidos y Pectínidos, Nuatilus Seafood Ltda. (Nº Pert. 202101030) (e-seia)</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -21751,11 +21751,11 @@
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Nautilus Seafood Limitada</t>
         </is>
       </c>
       <c r="F446" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G446" t="inlineStr">
         <is>
@@ -21764,12 +21764,12 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=478731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
